--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_15_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3599.468148035903</v>
+        <v>2829.454548968267</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,70 +1291,70 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>233.8929305869866</v>
       </c>
       <c r="D11" t="n">
-        <v>223.303080436662</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.5504088882408</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.4960845576905</v>
       </c>
       <c r="G11" t="n">
-        <v>283.422681953007</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.9732493819569</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.81603987441147</v>
+        <v>59.81603987441153</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.24420776110912</v>
+        <v>66.24420776110918</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.52672523994664</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.90427730394058</v>
       </c>
       <c r="W11" t="n">
-        <v>217.861007533392</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>187.1265936512818</v>
+        <v>238.3511394944481</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.8579774720326</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63.13660222070421</v>
+        <v>35.1532224658464</v>
       </c>
       <c r="C12" t="n">
-        <v>41.32853780429474</v>
+        <v>41.3285378042948</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,13 +1458,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.68925120936294</v>
       </c>
       <c r="G12" t="n">
-        <v>5.695981897544887</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.5447696799981</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.71309989434</v>
+        <v>35.33313871031903</v>
       </c>
       <c r="T12" t="n">
-        <v>67.7062561904869</v>
+        <v>67.70625619048695</v>
       </c>
       <c r="U12" t="n">
-        <v>94.54381733895087</v>
+        <v>96.42072485214186</v>
       </c>
       <c r="V12" t="n">
         <v>101.4206259654043</v>
@@ -1512,10 +1512,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.39302401945648</v>
+        <v>74.39302401945653</v>
       </c>
       <c r="Y12" t="n">
-        <v>74.30273459328336</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.4520189979163</v>
+        <v>48.45201899791635</v>
       </c>
       <c r="C13" t="n">
-        <v>35.86685991460683</v>
+        <v>35.86685991460689</v>
       </c>
       <c r="D13" t="n">
-        <v>17.23551183419136</v>
+        <v>17.23551183419141</v>
       </c>
       <c r="E13" t="n">
-        <v>15.05400146254817</v>
+        <v>15.05400146254823</v>
       </c>
       <c r="F13" t="n">
-        <v>14.04108683891025</v>
+        <v>14.0410868389103</v>
       </c>
       <c r="G13" t="n">
-        <v>36.38669305278276</v>
+        <v>36.38669305278282</v>
       </c>
       <c r="H13" t="n">
-        <v>28.85275705997683</v>
+        <v>28.85275705997688</v>
       </c>
       <c r="I13" t="n">
-        <v>17.32444553928503</v>
+        <v>17.32444553928509</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.82695699582447</v>
+        <v>35.82695699582453</v>
       </c>
       <c r="S13" t="n">
-        <v>88.7272617782909</v>
+        <v>88.72726177829095</v>
       </c>
       <c r="T13" t="n">
-        <v>95.6071481790073</v>
+        <v>95.60714817900735</v>
       </c>
       <c r="U13" t="n">
-        <v>154.9268322567432</v>
+        <v>154.9268322567433</v>
       </c>
       <c r="V13" t="n">
-        <v>120.757682139807</v>
+        <v>120.7576821398071</v>
       </c>
       <c r="W13" t="n">
-        <v>155.14303715257</v>
+        <v>155.1430371525701</v>
       </c>
       <c r="X13" t="n">
-        <v>94.32969420501615</v>
+        <v>94.32969420501621</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.20469216807379</v>
+        <v>87.20469216807385</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.3538804794597</v>
+        <v>251.3538804794596</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.8929305869866</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.550408888241</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>110.8733754890475</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.422681953007</v>
       </c>
       <c r="H14" t="n">
-        <v>202.9732493819571</v>
+        <v>202.973249381957</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.24420776110929</v>
+        <v>66.24420776110918</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>61.96917937068783</v>
       </c>
       <c r="U14" t="n">
-        <v>119.9256841735671</v>
+        <v>119.925684173567</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.8610075333922</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.8579774720328</v>
+        <v>254.8579774720326</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.15322246584651</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>41.32853780429491</v>
+        <v>41.3285378042948</v>
       </c>
       <c r="D15" t="n">
-        <v>16.06510438061792</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.68925120936294</v>
       </c>
       <c r="G15" t="n">
-        <v>5.695981897545058</v>
+        <v>5.695981897544944</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>146.8612881451731</v>
+        <v>35.33313871031903</v>
       </c>
       <c r="T15" t="n">
-        <v>67.70625619048707</v>
+        <v>67.70625619048695</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237785229719</v>
+        <v>206.0719667738061</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>120.3150219768988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.39302401945653</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.30273459328353</v>
+        <v>74.30273459328342</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.45201899791647</v>
+        <v>48.45201899791635</v>
       </c>
       <c r="C16" t="n">
-        <v>35.86685991460701</v>
+        <v>35.86685991460689</v>
       </c>
       <c r="D16" t="n">
-        <v>17.23551183419153</v>
+        <v>17.23551183419141</v>
       </c>
       <c r="E16" t="n">
-        <v>15.05400146254834</v>
+        <v>15.05400146254823</v>
       </c>
       <c r="F16" t="n">
-        <v>14.04108683891042</v>
+        <v>14.0410868389103</v>
       </c>
       <c r="G16" t="n">
-        <v>36.38669305278293</v>
+        <v>36.38669305278282</v>
       </c>
       <c r="H16" t="n">
-        <v>28.852757059977</v>
+        <v>28.85275705997688</v>
       </c>
       <c r="I16" t="n">
-        <v>17.3244455392852</v>
+        <v>17.32444553928509</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.82695699582464</v>
+        <v>35.82695699582453</v>
       </c>
       <c r="S16" t="n">
-        <v>88.72726177829107</v>
+        <v>88.72726177829095</v>
       </c>
       <c r="T16" t="n">
-        <v>95.60714817900747</v>
+        <v>95.60714817900735</v>
       </c>
       <c r="U16" t="n">
-        <v>154.9268322567434</v>
+        <v>154.9268322567433</v>
       </c>
       <c r="V16" t="n">
-        <v>120.7576821398072</v>
+        <v>120.7576821398071</v>
       </c>
       <c r="W16" t="n">
-        <v>155.1430371525702</v>
+        <v>155.1430371525701</v>
       </c>
       <c r="X16" t="n">
-        <v>94.32969420501632</v>
+        <v>94.32969420501621</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.20469216807396</v>
+        <v>87.20469216807385</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.2104945573959</v>
+        <v>145.2104945573971</v>
       </c>
       <c r="C17" t="n">
         <v>127.7495446649241</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.78229825150444</v>
+        <v>13.78229825150354</v>
       </c>
       <c r="V17" t="n">
         <v>90.22891136405141</v>
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.6512419216643</v>
       </c>
       <c r="I18" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>86.74168789257919</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>199.0862173745079</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>191.1492716976819</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.17163605483611</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>180.3036712061527</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>48.78344633468076</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9179674238972</v>
+        <v>14.61429621774451</v>
       </c>
       <c r="W19" t="n">
         <v>48.99965123050751</v>
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.5447696799981</v>
+        <v>35.00305941776382</v>
       </c>
       <c r="S21" t="n">
         <v>166.71309989434</v>
@@ -2217,16 +2217,16 @@
         <v>225.9237785229719</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>14.17163605483611</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>155.5747076369301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.49939401566411</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>102.8042771904885</v>
+        <v>180.3036712061527</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>205.9901577664494</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>227.8610711889758</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.3778732920196</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>112.9257979141331</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>180.3036712061526</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.609168356422</v>
+        <v>232.6091683564219</v>
       </c>
       <c r="C26" t="n">
-        <v>215.148218463949</v>
+        <v>215.1482184639489</v>
       </c>
       <c r="D26" t="n">
-        <v>204.5583683136244</v>
+        <v>204.5583683136243</v>
       </c>
       <c r="E26" t="n">
         <v>231.8056967652032</v>
       </c>
       <c r="F26" t="n">
-        <v>256.7513724346529</v>
+        <v>256.7513724346528</v>
       </c>
       <c r="G26" t="n">
-        <v>264.6779698299695</v>
+        <v>264.6779698299694</v>
       </c>
       <c r="H26" t="n">
-        <v>184.2285372589194</v>
+        <v>184.2285372589193</v>
       </c>
       <c r="I26" t="n">
-        <v>41.07132775137393</v>
+        <v>41.07132775137384</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.49949563807158</v>
+        <v>47.49949563807149</v>
       </c>
       <c r="T26" t="n">
-        <v>70.78201311690904</v>
+        <v>70.78201311690896</v>
       </c>
       <c r="U26" t="n">
-        <v>101.1809720505294</v>
+        <v>101.1809720505293</v>
       </c>
       <c r="V26" t="n">
-        <v>177.6275851630764</v>
+        <v>177.6275851630763</v>
       </c>
       <c r="W26" t="n">
-        <v>199.1162954103545</v>
+        <v>199.1162954103544</v>
       </c>
       <c r="X26" t="n">
-        <v>219.6064273714105</v>
+        <v>219.6064273714104</v>
       </c>
       <c r="Y26" t="n">
         <v>236.113265348995</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.40851034280871</v>
       </c>
       <c r="C27" t="n">
-        <v>22.5838256812572</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>133.8381740665787</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.58842658728143</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0862173745079</v>
+        <v>48.96154406744927</v>
       </c>
       <c r="U27" t="n">
-        <v>75.79910521591333</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>238.0880916628597</v>
       </c>
       <c r="X27" t="n">
-        <v>55.64831189641893</v>
+        <v>55.64831189641885</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>55.55802247024573</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.70730687487875</v>
+        <v>29.70730687487867</v>
       </c>
       <c r="C28" t="n">
-        <v>17.12214779156929</v>
+        <v>17.1221477915692</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.64198092974521</v>
+        <v>17.64198092974513</v>
       </c>
       <c r="H28" t="n">
-        <v>10.10804493693928</v>
+        <v>10.1080449369392</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.08224487278693</v>
+        <v>17.08224487278684</v>
       </c>
       <c r="S28" t="n">
-        <v>69.98254965525335</v>
+        <v>69.98254965525327</v>
       </c>
       <c r="T28" t="n">
-        <v>76.86243605596975</v>
+        <v>76.86243605596967</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1821201337057</v>
+        <v>136.1821201337056</v>
       </c>
       <c r="V28" t="n">
-        <v>102.0129700167695</v>
+        <v>102.0129700167694</v>
       </c>
       <c r="W28" t="n">
-        <v>136.3983250295325</v>
+        <v>136.3983250295324</v>
       </c>
       <c r="X28" t="n">
-        <v>75.58498208197861</v>
+        <v>75.58498208197852</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.45998004503625</v>
+        <v>68.45998004503616</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6091683564219</v>
+        <v>232.609168356422</v>
       </c>
       <c r="C29" t="n">
-        <v>215.1482184639489</v>
+        <v>215.148218463949</v>
       </c>
       <c r="D29" t="n">
-        <v>204.5583683136243</v>
+        <v>204.5583683136244</v>
       </c>
       <c r="E29" t="n">
         <v>231.8056967652032</v>
       </c>
       <c r="F29" t="n">
-        <v>256.7513724346528</v>
+        <v>256.7513724346529</v>
       </c>
       <c r="G29" t="n">
         <v>264.6779698299694</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2285372589193</v>
+        <v>184.2285372589194</v>
       </c>
       <c r="I29" t="n">
-        <v>41.07132775137384</v>
+        <v>41.0713277513739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.49949563807149</v>
+        <v>47.49949563807154</v>
       </c>
       <c r="T29" t="n">
-        <v>70.78201311690896</v>
+        <v>70.78201311690901</v>
       </c>
       <c r="U29" t="n">
-        <v>101.1809720505293</v>
+        <v>101.1809720505294</v>
       </c>
       <c r="V29" t="n">
         <v>177.6275851630763</v>
@@ -2855,7 +2855,7 @@
         <v>199.1162954103544</v>
       </c>
       <c r="X29" t="n">
-        <v>219.6064273714104</v>
+        <v>219.6064273714105</v>
       </c>
       <c r="Y29" t="n">
         <v>236.113265348995</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.40851034280871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2883,7 +2883,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>82.99562019811182</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S30" t="n">
-        <v>16.58842658728134</v>
+        <v>16.5884265872814</v>
       </c>
       <c r="T30" t="n">
-        <v>199.0862173745079</v>
+        <v>48.96154406744933</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9237785229719</v>
+        <v>225.3746290410857</v>
       </c>
       <c r="V30" t="n">
-        <v>82.67591384236664</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>101.570309853861</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.70730687487867</v>
+        <v>29.70730687487873</v>
       </c>
       <c r="C31" t="n">
-        <v>17.1221477915692</v>
+        <v>17.12214779156926</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.64198092974513</v>
+        <v>17.64198092974518</v>
       </c>
       <c r="H31" t="n">
-        <v>10.1080449369392</v>
+        <v>10.10804493693925</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.08224487278685</v>
+        <v>17.0822448727869</v>
       </c>
       <c r="S31" t="n">
-        <v>69.98254965525327</v>
+        <v>69.98254965525332</v>
       </c>
       <c r="T31" t="n">
-        <v>76.86243605596967</v>
+        <v>76.86243605596972</v>
       </c>
       <c r="U31" t="n">
-        <v>136.1821201337056</v>
+        <v>136.1821201337057</v>
       </c>
       <c r="V31" t="n">
         <v>102.0129700167694</v>
@@ -3013,10 +3013,10 @@
         <v>136.3983250295324</v>
       </c>
       <c r="X31" t="n">
-        <v>75.58498208197852</v>
+        <v>75.58498208197858</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.45998004503616</v>
+        <v>68.45998004503622</v>
       </c>
     </row>
     <row r="32">
@@ -3111,7 +3111,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>81.49810039302834</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.03952209631271</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>166.71309989434</v>
       </c>
       <c r="T33" t="n">
-        <v>47.18257351315373</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U33" t="n">
         <v>225.9237785229719</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>80.8969432880711</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>53.77905191595019</v>
       </c>
     </row>
     <row r="34">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.39895893362034</v>
+        <v>30.39895893362035</v>
       </c>
       <c r="V35" t="n">
         <v>106.8455720461673</v>
@@ -3348,19 +3348,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H36" t="n">
-        <v>103.3877195983383</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I36" t="n">
         <v>80.18410416320771</v>
@@ -3393,25 +3393,25 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S36" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U36" t="n">
-        <v>5.01709209900429</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>11.89390072545768</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>37.27872284321832</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>119.5702972556747</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>65.61631191262342</v>
       </c>
       <c r="X37" t="n">
-        <v>124.3732662207443</v>
+        <v>4.802968965069567</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3582,19 +3582,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T39" t="n">
-        <v>52.36737704437205</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U39" t="n">
         <v>225.9237785229719</v>
@@ -3642,10 +3642,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>30.78829673695202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>142.0604041548631</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>119.5702972556747</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>31.23095689986042</v>
       </c>
       <c r="W40" t="n">
-        <v>65.61631191262342</v>
+        <v>185.1866091682981</v>
       </c>
       <c r="X40" t="n">
         <v>4.802968965069567</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.95463747392</v>
+        <v>179.9546374739201</v>
       </c>
       <c r="C41" t="n">
-        <v>162.4936875814469</v>
+        <v>162.493687581447</v>
       </c>
       <c r="D41" t="n">
         <v>151.9038374311224</v>
       </c>
       <c r="E41" t="n">
-        <v>179.1511658827012</v>
+        <v>179.1511658827013</v>
       </c>
       <c r="F41" t="n">
-        <v>204.0968415521508</v>
+        <v>204.0968415521509</v>
       </c>
       <c r="G41" t="n">
-        <v>212.0234389474674</v>
+        <v>212.0234389474675</v>
       </c>
       <c r="H41" t="n">
-        <v>131.5740063764174</v>
+        <v>131.5740063764175</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.12748223440698</v>
+        <v>18.12748223440707</v>
       </c>
       <c r="U41" t="n">
-        <v>48.52644116802733</v>
+        <v>48.52644116802742</v>
       </c>
       <c r="V41" t="n">
-        <v>124.9730542805743</v>
+        <v>124.9730542805744</v>
       </c>
       <c r="W41" t="n">
-        <v>146.4617645278524</v>
+        <v>146.4617645278525</v>
       </c>
       <c r="X41" t="n">
-        <v>166.9518964889084</v>
+        <v>166.9518964889085</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.458734466493</v>
+        <v>183.4587344664931</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>19.85712144885563</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>102.0489930200606</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T42" t="n">
         <v>199.0862173745079</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.3280187727513</v>
+        <v>17.32801877275138</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2079051734677</v>
+        <v>24.20790517346779</v>
       </c>
       <c r="U43" t="n">
-        <v>83.52758925120365</v>
+        <v>83.52758925120374</v>
       </c>
       <c r="V43" t="n">
-        <v>49.3584391342674</v>
+        <v>49.35843913426748</v>
       </c>
       <c r="W43" t="n">
-        <v>83.7437941470304</v>
+        <v>83.74379414703048</v>
       </c>
       <c r="X43" t="n">
-        <v>22.93045119947655</v>
+        <v>22.93045119947664</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.80544916253419</v>
+        <v>15.80544916253427</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>179.95463747392</v>
       </c>
       <c r="C44" t="n">
-        <v>162.4936875814469</v>
+        <v>162.493687581447</v>
       </c>
       <c r="D44" t="n">
         <v>151.9038374311224</v>
@@ -3986,7 +3986,7 @@
         <v>179.1511658827012</v>
       </c>
       <c r="F44" t="n">
-        <v>204.0968415521508</v>
+        <v>204.0968415521509</v>
       </c>
       <c r="G44" t="n">
         <v>212.0234389474674</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.12748223440698</v>
+        <v>18.12748223440701</v>
       </c>
       <c r="U44" t="n">
-        <v>48.52644116802733</v>
+        <v>48.52644116802736</v>
       </c>
       <c r="V44" t="n">
         <v>124.9730542805743</v>
@@ -4040,7 +4040,7 @@
         <v>146.4617645278524</v>
       </c>
       <c r="X44" t="n">
-        <v>166.9518964889084</v>
+        <v>166.9518964889085</v>
       </c>
       <c r="Y44" t="n">
         <v>183.458734466493</v>
@@ -4056,25 +4056,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.046430871319</v>
       </c>
       <c r="S45" t="n">
         <v>166.71309989434</v>
       </c>
       <c r="T45" t="n">
-        <v>181.9320874056426</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U45" t="n">
-        <v>23.14457433341127</v>
+        <v>23.1445743334113</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>30.0213829598647</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.3280187727513</v>
+        <v>17.32801877275132</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2079051734677</v>
+        <v>24.20790517346773</v>
       </c>
       <c r="U46" t="n">
-        <v>83.52758925120365</v>
+        <v>83.52758925120368</v>
       </c>
       <c r="V46" t="n">
-        <v>49.3584391342674</v>
+        <v>49.35843913426743</v>
       </c>
       <c r="W46" t="n">
-        <v>83.7437941470304</v>
+        <v>83.74379414703043</v>
       </c>
       <c r="X46" t="n">
-        <v>22.93045119947655</v>
+        <v>22.93045119947658</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.80544916253419</v>
+        <v>15.80544916253422</v>
       </c>
     </row>
   </sheetData>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F8" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4829,25 +4829,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G9" t="n">
-        <v>1.304216312122629</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L9" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O9" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.304216312122629</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="D10" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E10" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="X10" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1043.942092776684</v>
+        <v>858.4344985083067</v>
       </c>
       <c r="C11" t="n">
-        <v>807.6866073352837</v>
+        <v>622.1790130669061</v>
       </c>
       <c r="D11" t="n">
-        <v>582.1279402275444</v>
+        <v>622.1790130669061</v>
       </c>
       <c r="E11" t="n">
-        <v>582.1279402275444</v>
+        <v>369.0977919676728</v>
       </c>
       <c r="F11" t="n">
-        <v>582.1279402275444</v>
+        <v>90.81891867707631</v>
       </c>
       <c r="G11" t="n">
-        <v>295.8424029012751</v>
+        <v>90.81891867707631</v>
       </c>
       <c r="H11" t="n">
-        <v>90.81891867707627</v>
+        <v>90.81891867707631</v>
       </c>
       <c r="I11" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J11" t="n">
-        <v>60.58931629025216</v>
+        <v>60.58931629025217</v>
       </c>
       <c r="K11" t="n">
         <v>226.5820636478224</v>
       </c>
       <c r="L11" t="n">
-        <v>484.7873723698835</v>
+        <v>484.7873723698836</v>
       </c>
       <c r="M11" t="n">
-        <v>788.6970746328856</v>
+        <v>788.6970746328857</v>
       </c>
       <c r="N11" t="n">
         <v>1082.892356060502</v>
@@ -5069,22 +5069,22 @@
         <v>1453.020477811709</v>
       </c>
       <c r="T11" t="n">
-        <v>1453.020477811709</v>
+        <v>1362.589442215803</v>
       </c>
       <c r="U11" t="n">
-        <v>1453.020477811709</v>
+        <v>1362.589442215803</v>
       </c>
       <c r="V11" t="n">
-        <v>1453.020477811709</v>
+        <v>1356.625525747176</v>
       </c>
       <c r="W11" t="n">
-        <v>1232.958854040606</v>
+        <v>1356.625525747176</v>
       </c>
       <c r="X11" t="n">
-        <v>1043.942092776684</v>
+        <v>1115.866798985107</v>
       </c>
       <c r="Y11" t="n">
-        <v>1043.942092776684</v>
+        <v>858.4344985083067</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>532.6046138698557</v>
+        <v>643.3634440937593</v>
       </c>
       <c r="C12" t="n">
-        <v>490.8586160877398</v>
+        <v>601.6174463116433</v>
       </c>
       <c r="D12" t="n">
-        <v>341.9242064264886</v>
+        <v>452.683036650392</v>
       </c>
       <c r="E12" t="n">
-        <v>182.6867514210331</v>
+        <v>293.4455816449365</v>
       </c>
       <c r="F12" t="n">
-        <v>36.15219344791809</v>
+        <v>279.6180551708325</v>
       </c>
       <c r="G12" t="n">
-        <v>30.39867637969093</v>
+        <v>141.1575066035942</v>
       </c>
       <c r="H12" t="n">
         <v>30.39867637969093</v>
@@ -5127,13 +5127,13 @@
         <v>510.2992069664045</v>
       </c>
       <c r="M12" t="n">
-        <v>886.4828271650797</v>
+        <v>807.3141570695003</v>
       </c>
       <c r="N12" t="n">
-        <v>886.4828271650797</v>
+        <v>1183.497777268175</v>
       </c>
       <c r="O12" t="n">
-        <v>1198.262295174098</v>
+        <v>1183.497777268175</v>
       </c>
       <c r="P12" t="n">
         <v>1416.72521963145</v>
@@ -5142,28 +5142,28 @@
         <v>1519.933818984546</v>
       </c>
       <c r="R12" t="n">
-        <v>1435.545162742124</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="S12" t="n">
-        <v>1267.148092141781</v>
+        <v>1484.243779883214</v>
       </c>
       <c r="T12" t="n">
-        <v>1198.757934373612</v>
+        <v>1415.853622115045</v>
       </c>
       <c r="U12" t="n">
-        <v>1103.259128980732</v>
+        <v>1318.458950547225</v>
       </c>
       <c r="V12" t="n">
-        <v>1000.814052248001</v>
+        <v>1216.013873814494</v>
       </c>
       <c r="W12" t="n">
-        <v>746.5766955197992</v>
+        <v>961.7765170862918</v>
       </c>
       <c r="X12" t="n">
-        <v>671.4322268132775</v>
+        <v>886.6320483797701</v>
       </c>
       <c r="Y12" t="n">
-        <v>596.3789595473347</v>
+        <v>678.8717496148163</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.8242882001972</v>
+        <v>196.8242882001976</v>
       </c>
       <c r="C13" t="n">
-        <v>160.5951367713014</v>
+        <v>160.5951367713018</v>
       </c>
       <c r="D13" t="n">
-        <v>143.1855288579768</v>
+        <v>143.1855288579771</v>
       </c>
       <c r="E13" t="n">
-        <v>127.9794667745948</v>
+        <v>127.9794667745951</v>
       </c>
       <c r="F13" t="n">
-        <v>113.7965507756956</v>
+        <v>113.7965507756958</v>
       </c>
       <c r="G13" t="n">
-        <v>77.04231536884433</v>
+        <v>77.04231536884444</v>
       </c>
       <c r="H13" t="n">
-        <v>47.89811631836268</v>
+        <v>47.89811631836274</v>
       </c>
       <c r="I13" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J13" t="n">
-        <v>83.74043787636424</v>
+        <v>83.74043787636418</v>
       </c>
       <c r="K13" t="n">
-        <v>217.5616780336794</v>
+        <v>217.5616780336793</v>
       </c>
       <c r="L13" t="n">
-        <v>407.9594819694863</v>
+        <v>277.8933203973054</v>
       </c>
       <c r="M13" t="n">
-        <v>605.6334229533286</v>
+        <v>481.9598628159832</v>
       </c>
       <c r="N13" t="n">
-        <v>683.3088565641328</v>
+        <v>689.7014579989682</v>
       </c>
       <c r="O13" t="n">
-        <v>869.1045576946407</v>
+        <v>875.4971591294759</v>
       </c>
       <c r="P13" t="n">
-        <v>1023.336285705549</v>
+        <v>1023.33628570555</v>
       </c>
       <c r="Q13" t="n">
-        <v>1086.698352718631</v>
+        <v>1086.698352718632</v>
       </c>
       <c r="R13" t="n">
-        <v>1050.509507268303</v>
+        <v>1050.509507268304</v>
       </c>
       <c r="S13" t="n">
-        <v>960.8860105225547</v>
+        <v>960.8860105225555</v>
       </c>
       <c r="T13" t="n">
-        <v>864.3131335740625</v>
+        <v>864.3131335740632</v>
       </c>
       <c r="U13" t="n">
-        <v>707.8213838197763</v>
+        <v>707.821383819777</v>
       </c>
       <c r="V13" t="n">
-        <v>585.8439271129006</v>
+        <v>585.8439271129012</v>
       </c>
       <c r="W13" t="n">
-        <v>429.133788574951</v>
+        <v>429.1337885749516</v>
       </c>
       <c r="X13" t="n">
-        <v>333.8512691759448</v>
+        <v>333.8512691759453</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.7657215314258</v>
+        <v>245.7657215314263</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>600.4966902779189</v>
+        <v>757.9631833715601</v>
       </c>
       <c r="C14" t="n">
-        <v>600.4966902779189</v>
+        <v>521.7076979301595</v>
       </c>
       <c r="D14" t="n">
-        <v>600.4966902779189</v>
+        <v>521.7076979301595</v>
       </c>
       <c r="E14" t="n">
-        <v>347.4154691786856</v>
+        <v>521.7076979301595</v>
       </c>
       <c r="F14" t="n">
-        <v>235.42216060389</v>
+        <v>521.7076979301595</v>
       </c>
       <c r="G14" t="n">
-        <v>235.42216060389</v>
+        <v>235.4221606038899</v>
       </c>
       <c r="H14" t="n">
-        <v>30.39867637969093</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39867637969093</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="J14" t="n">
-        <v>60.58931629025247</v>
+        <v>60.58931629025219</v>
       </c>
       <c r="K14" t="n">
-        <v>226.5820636478227</v>
+        <v>226.5820636478224</v>
       </c>
       <c r="L14" t="n">
-        <v>484.7873723698839</v>
+        <v>484.7873723698833</v>
       </c>
       <c r="M14" t="n">
-        <v>788.6970746328859</v>
+        <v>788.6970746328855</v>
       </c>
       <c r="N14" t="n">
-        <v>1082.892356060502</v>
+        <v>1082.892356060501</v>
       </c>
       <c r="O14" t="n">
         <v>1315.504980085947</v>
@@ -5303,25 +5303,25 @@
         <v>1519.933818984546</v>
       </c>
       <c r="S14" t="n">
-        <v>1453.020477811709</v>
+        <v>1453.020477811708</v>
       </c>
       <c r="T14" t="n">
-        <v>1453.020477811709</v>
+        <v>1390.425347134246</v>
       </c>
       <c r="U14" t="n">
-        <v>1331.883423090934</v>
+        <v>1269.288292413471</v>
       </c>
       <c r="V14" t="n">
-        <v>1331.883423090934</v>
+        <v>1269.288292413471</v>
       </c>
       <c r="W14" t="n">
-        <v>1111.82179931983</v>
+        <v>1269.288292413471</v>
       </c>
       <c r="X14" t="n">
-        <v>1111.82179931983</v>
+        <v>1269.288292413471</v>
       </c>
       <c r="Y14" t="n">
-        <v>854.3894988430297</v>
+        <v>1011.855991936671</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>399.8975823708452</v>
+        <v>399.8975823708449</v>
       </c>
       <c r="C15" t="n">
-        <v>358.1515845887291</v>
+        <v>358.1515845887289</v>
       </c>
       <c r="D15" t="n">
-        <v>341.9242064264888</v>
+        <v>209.2171749274776</v>
       </c>
       <c r="E15" t="n">
-        <v>182.6867514210333</v>
+        <v>49.97971992202211</v>
       </c>
       <c r="F15" t="n">
-        <v>36.15219344791826</v>
+        <v>36.15219344791814</v>
       </c>
       <c r="G15" t="n">
-        <v>30.39867637969093</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="H15" t="n">
-        <v>30.39867637969093</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="I15" t="n">
-        <v>30.39867637969093</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="J15" t="n">
-        <v>30.39867637969093</v>
+        <v>54.68663500082916</v>
       </c>
       <c r="K15" t="n">
-        <v>30.39867637969093</v>
+        <v>222.8194679282963</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8784154177991</v>
+        <v>510.2992069664045</v>
       </c>
       <c r="M15" t="n">
-        <v>694.0620356164743</v>
+        <v>886.4828271650796</v>
       </c>
       <c r="N15" t="n">
-        <v>1070.245655815149</v>
+        <v>1208.154350975527</v>
       </c>
       <c r="O15" t="n">
-        <v>1286.706376621272</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="P15" t="n">
         <v>1519.933818984546</v>
@@ -5382,25 +5382,25 @@
         <v>1519.933818984546</v>
       </c>
       <c r="S15" t="n">
-        <v>1371.589083484371</v>
+        <v>1484.243779883214</v>
       </c>
       <c r="T15" t="n">
-        <v>1303.198925716202</v>
+        <v>1415.853622115045</v>
       </c>
       <c r="U15" t="n">
-        <v>1074.993088824312</v>
+        <v>1207.700120323322</v>
       </c>
       <c r="V15" t="n">
-        <v>839.8409805925688</v>
+        <v>972.548012091579</v>
       </c>
       <c r="W15" t="n">
-        <v>718.3106553633781</v>
+        <v>718.3106553633775</v>
       </c>
       <c r="X15" t="n">
-        <v>510.4591551578453</v>
+        <v>643.1661866568558</v>
       </c>
       <c r="Y15" t="n">
-        <v>435.4058878919023</v>
+        <v>568.1129193909129</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.8242882001985</v>
+        <v>196.8242882001976</v>
       </c>
       <c r="C16" t="n">
-        <v>160.5951367713025</v>
+        <v>160.5951367713018</v>
       </c>
       <c r="D16" t="n">
-        <v>143.1855288579777</v>
+        <v>143.1855288579771</v>
       </c>
       <c r="E16" t="n">
-        <v>127.9794667745955</v>
+        <v>127.9794667745951</v>
       </c>
       <c r="F16" t="n">
-        <v>113.7965507756961</v>
+        <v>113.7965507756958</v>
       </c>
       <c r="G16" t="n">
-        <v>77.04231536884467</v>
+        <v>77.04231536884443</v>
       </c>
       <c r="H16" t="n">
-        <v>47.89811631836285</v>
+        <v>47.89811631836272</v>
       </c>
       <c r="I16" t="n">
-        <v>30.39867637969093</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="J16" t="n">
-        <v>83.74043787636407</v>
+        <v>83.74043787636418</v>
       </c>
       <c r="K16" t="n">
-        <v>217.561678033679</v>
+        <v>87.49551646149851</v>
       </c>
       <c r="L16" t="n">
-        <v>407.9594819694858</v>
+        <v>277.8933203973054</v>
       </c>
       <c r="M16" t="n">
-        <v>481.9598628159828</v>
+        <v>475.567261381149</v>
       </c>
       <c r="N16" t="n">
-        <v>689.7014579989676</v>
+        <v>683.308856564134</v>
       </c>
       <c r="O16" t="n">
-        <v>869.104557694644</v>
+        <v>869.1045576946417</v>
       </c>
       <c r="P16" t="n">
-        <v>1023.336285705553</v>
+        <v>1023.33628570555</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.698352718634</v>
+        <v>1086.698352718632</v>
       </c>
       <c r="R16" t="n">
-        <v>1050.509507268306</v>
+        <v>1050.509507268304</v>
       </c>
       <c r="S16" t="n">
-        <v>960.8860105225571</v>
+        <v>960.8860105225555</v>
       </c>
       <c r="T16" t="n">
-        <v>864.3131335740646</v>
+        <v>864.3131335740632</v>
       </c>
       <c r="U16" t="n">
-        <v>707.8213838197784</v>
+        <v>707.821383819777</v>
       </c>
       <c r="V16" t="n">
-        <v>585.8439271129024</v>
+        <v>585.8439271129012</v>
       </c>
       <c r="W16" t="n">
-        <v>429.1337885749527</v>
+        <v>429.1337885749516</v>
       </c>
       <c r="X16" t="n">
-        <v>333.8512691759464</v>
+        <v>333.8512691759453</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.7657215314272</v>
+        <v>245.7657215314263</v>
       </c>
     </row>
     <row r="17">
@@ -5492,37 +5492,37 @@
         <v>871.5886968566299</v>
       </c>
       <c r="C17" t="n">
-        <v>742.5487527506459</v>
+        <v>742.5487527506461</v>
       </c>
       <c r="D17" t="n">
-        <v>624.2056269783232</v>
+        <v>624.2056269783234</v>
       </c>
       <c r="E17" t="n">
-        <v>478.3399472145067</v>
+        <v>478.339947214507</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2766152593269</v>
+        <v>307.2766152593272</v>
       </c>
       <c r="G17" t="n">
         <v>128.2066192684732</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I17" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969122</v>
       </c>
       <c r="J17" t="n">
-        <v>60.58931629025187</v>
+        <v>60.58931629025247</v>
       </c>
       <c r="K17" t="n">
-        <v>226.5820636478222</v>
+        <v>226.5820636478227</v>
       </c>
       <c r="L17" t="n">
-        <v>484.7873723698834</v>
+        <v>484.7873723698839</v>
       </c>
       <c r="M17" t="n">
-        <v>788.6970746328857</v>
+        <v>788.6970746328859</v>
       </c>
       <c r="N17" t="n">
         <v>1082.892356060502</v>
@@ -5546,19 +5546,19 @@
         <v>1519.933818984546</v>
       </c>
       <c r="U17" t="n">
-        <v>1506.012305599188</v>
+        <v>1506.012305599189</v>
       </c>
       <c r="V17" t="n">
-        <v>1414.871991090045</v>
+        <v>1414.871991090046</v>
       </c>
       <c r="W17" t="n">
-        <v>1302.025908654359</v>
+        <v>1302.02590865436</v>
       </c>
       <c r="X17" t="n">
-        <v>1168.482723227707</v>
+        <v>1168.482723227708</v>
       </c>
       <c r="Y17" t="n">
-        <v>1018.265964086323</v>
+        <v>1018.265964086324</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>840.8371420398308</v>
+        <v>287.6920645767093</v>
       </c>
       <c r="C18" t="n">
-        <v>666.3841127587038</v>
+        <v>287.6920645767093</v>
       </c>
       <c r="D18" t="n">
-        <v>666.3841127587038</v>
+        <v>287.6920645767093</v>
       </c>
       <c r="E18" t="n">
-        <v>507.1466577532483</v>
+        <v>287.6920645767093</v>
       </c>
       <c r="F18" t="n">
-        <v>360.6120997801332</v>
+        <v>141.1575066035942</v>
       </c>
       <c r="G18" t="n">
-        <v>222.151551212895</v>
+        <v>141.1575066035942</v>
       </c>
       <c r="H18" t="n">
-        <v>111.3927209889916</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I18" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="J18" t="n">
         <v>54.68663500082916</v>
@@ -5601,10 +5601,10 @@
         <v>510.2992069664045</v>
       </c>
       <c r="M18" t="n">
-        <v>871.7183092591563</v>
+        <v>871.7183092591567</v>
       </c>
       <c r="N18" t="n">
-        <v>871.7183092591563</v>
+        <v>871.7183092591567</v>
       </c>
       <c r="O18" t="n">
         <v>1183.497777268175</v>
@@ -5619,25 +5619,25 @@
         <v>1519.933818984546</v>
       </c>
       <c r="S18" t="n">
-        <v>1432.315952426385</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="T18" t="n">
-        <v>1231.218763159206</v>
+        <v>1318.836629717367</v>
       </c>
       <c r="U18" t="n">
-        <v>1231.218763159206</v>
+        <v>1125.756557295466</v>
       </c>
       <c r="V18" t="n">
-        <v>1231.218763159206</v>
+        <v>1125.756557295466</v>
       </c>
       <c r="W18" t="n">
-        <v>1216.903979265432</v>
+        <v>871.5192005672641</v>
       </c>
       <c r="X18" t="n">
-        <v>1009.052479059899</v>
+        <v>663.6677003617312</v>
       </c>
       <c r="Y18" t="n">
-        <v>1009.052479059899</v>
+        <v>455.9074015967773</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="C19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="D19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="E19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="F19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="G19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="H19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="J19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="K19" t="n">
-        <v>34.15375496482525</v>
+        <v>34.15375496482526</v>
       </c>
       <c r="L19" t="n">
-        <v>94.4853973284514</v>
+        <v>94.48539732845141</v>
       </c>
       <c r="M19" t="n">
         <v>168.4857781749484</v>
@@ -5689,34 +5689,34 @@
         <v>301.8907513440797</v>
       </c>
       <c r="P19" t="n">
-        <v>326.0563177828075</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.0563177828075</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="R19" t="n">
-        <v>326.0563177828075</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="S19" t="n">
-        <v>326.0563177828075</v>
+        <v>143.9313973725523</v>
       </c>
       <c r="T19" t="n">
-        <v>326.0563177828075</v>
+        <v>143.9313973725523</v>
       </c>
       <c r="U19" t="n">
-        <v>276.7801093639381</v>
+        <v>94.65518895368287</v>
       </c>
       <c r="V19" t="n">
         <v>79.89327358222377</v>
       </c>
       <c r="W19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="X19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.39867637969092</v>
+        <v>30.39867637969093</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>871.5886968566288</v>
       </c>
       <c r="C20" t="n">
-        <v>742.548752750645</v>
+        <v>742.5487527506448</v>
       </c>
       <c r="D20" t="n">
         <v>624.2056269783222</v>
@@ -5750,7 +5750,7 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J20" t="n">
-        <v>60.58931629025216</v>
+        <v>60.58931629025247</v>
       </c>
       <c r="K20" t="n">
         <v>226.5820636478227</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>666.3841127587038</v>
+        <v>189.6361313851464</v>
       </c>
       <c r="C21" t="n">
-        <v>666.3841127587038</v>
+        <v>189.6361313851464</v>
       </c>
       <c r="D21" t="n">
-        <v>666.3841127587038</v>
+        <v>189.6361313851464</v>
       </c>
       <c r="E21" t="n">
-        <v>507.1466577532483</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="F21" t="n">
-        <v>360.6120997801332</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="G21" t="n">
-        <v>222.151551212895</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="H21" t="n">
-        <v>111.3927209889916</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I21" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="J21" t="n">
-        <v>54.68663500082916</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="K21" t="n">
-        <v>222.8194679282963</v>
+        <v>198.531509307158</v>
       </c>
       <c r="L21" t="n">
-        <v>222.8194679282963</v>
+        <v>486.0112483452663</v>
       </c>
       <c r="M21" t="n">
-        <v>599.0030881269714</v>
+        <v>862.1948685439414</v>
       </c>
       <c r="N21" t="n">
-        <v>975.1867083256466</v>
+        <v>1238.378488742617</v>
       </c>
       <c r="O21" t="n">
-        <v>1286.966176334665</v>
+        <v>1286.706376621272</v>
       </c>
       <c r="P21" t="n">
         <v>1519.933818984546</v>
@@ -5853,28 +5853,28 @@
         <v>1519.933818984546</v>
       </c>
       <c r="R21" t="n">
-        <v>1435.545162742124</v>
+        <v>1484.577193310037</v>
       </c>
       <c r="S21" t="n">
-        <v>1267.148092141781</v>
+        <v>1316.180122709694</v>
       </c>
       <c r="T21" t="n">
-        <v>1066.050902874601</v>
+        <v>1115.082933442514</v>
       </c>
       <c r="U21" t="n">
-        <v>837.8450659827101</v>
+        <v>886.8770965506235</v>
       </c>
       <c r="V21" t="n">
-        <v>837.8450659827101</v>
+        <v>651.7249883188808</v>
       </c>
       <c r="W21" t="n">
-        <v>823.5302820889362</v>
+        <v>397.4876315906793</v>
       </c>
       <c r="X21" t="n">
-        <v>823.5302820889362</v>
+        <v>189.6361313851464</v>
       </c>
       <c r="Y21" t="n">
-        <v>666.3841127587038</v>
+        <v>189.6361313851464</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="C22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="D22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="E22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="F22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="G22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="H22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="I22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="J22" t="n">
         <v>30.39867637969093</v>
       </c>
       <c r="K22" t="n">
-        <v>34.15375496482525</v>
+        <v>34.15375496482526</v>
       </c>
       <c r="L22" t="n">
-        <v>94.4853973284514</v>
+        <v>94.48539732845141</v>
       </c>
       <c r="M22" t="n">
         <v>168.4857781749484</v>
@@ -5926,34 +5926,34 @@
         <v>301.8907513440797</v>
       </c>
       <c r="P22" t="n">
-        <v>326.0563177828075</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.0563177828075</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="R22" t="n">
-        <v>326.0563177828075</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="S22" t="n">
-        <v>222.2136135499908</v>
+        <v>143.9313973725523</v>
       </c>
       <c r="T22" t="n">
-        <v>222.2136135499908</v>
+        <v>143.9313973725523</v>
       </c>
       <c r="U22" t="n">
-        <v>172.9374051311214</v>
+        <v>94.65518895368287</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1754897596623</v>
+        <v>79.89327358222377</v>
       </c>
       <c r="W22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="X22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.6808925571294</v>
+        <v>30.39867637969093</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>871.588696856629</v>
+        <v>871.5886968566285</v>
       </c>
       <c r="C23" t="n">
-        <v>742.548752750645</v>
+        <v>742.5487527506448</v>
       </c>
       <c r="D23" t="n">
         <v>624.2056269783222</v>
@@ -5984,19 +5984,19 @@
         <v>30.39867637969092</v>
       </c>
       <c r="I23" t="n">
-        <v>30.398676379691</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="J23" t="n">
-        <v>60.58931629025224</v>
+        <v>60.58931629025216</v>
       </c>
       <c r="K23" t="n">
-        <v>226.5820636478225</v>
+        <v>226.5820636478224</v>
       </c>
       <c r="L23" t="n">
-        <v>484.7873723698837</v>
+        <v>484.7873723698835</v>
       </c>
       <c r="M23" t="n">
-        <v>788.6970746328857</v>
+        <v>788.6970746328856</v>
       </c>
       <c r="N23" t="n">
         <v>1082.892356060502</v>
@@ -6023,13 +6023,13 @@
         <v>1506.012305599188</v>
       </c>
       <c r="V23" t="n">
-        <v>1414.871991090046</v>
+        <v>1414.871991090045</v>
       </c>
       <c r="W23" t="n">
         <v>1302.025908654359</v>
       </c>
       <c r="X23" t="n">
-        <v>1168.482723227707</v>
+        <v>1168.482723227706</v>
       </c>
       <c r="Y23" t="n">
         <v>1018.265964086323</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>406.861688623358</v>
+        <v>659.5581283006397</v>
       </c>
       <c r="C24" t="n">
-        <v>406.861688623358</v>
+        <v>485.1050990195127</v>
       </c>
       <c r="D24" t="n">
-        <v>257.9272789621067</v>
+        <v>336.1706893582615</v>
       </c>
       <c r="E24" t="n">
-        <v>257.9272789621067</v>
+        <v>176.933234352806</v>
       </c>
       <c r="F24" t="n">
-        <v>111.3927209889916</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="G24" t="n">
-        <v>111.3927209889916</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="H24" t="n">
-        <v>111.3927209889916</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="I24" t="n">
         <v>30.39867637969092</v>
       </c>
       <c r="J24" t="n">
-        <v>54.68663500082916</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="K24" t="n">
-        <v>222.8194679282963</v>
+        <v>30.39867637969092</v>
       </c>
       <c r="L24" t="n">
-        <v>495.5346890604812</v>
+        <v>222.5596682149025</v>
       </c>
       <c r="M24" t="n">
-        <v>871.7183092591563</v>
+        <v>598.7432884135776</v>
       </c>
       <c r="N24" t="n">
-        <v>871.7183092591563</v>
+        <v>974.9269086122526</v>
       </c>
       <c r="O24" t="n">
-        <v>1183.497777268175</v>
+        <v>1286.706376621271</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.72521963145</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="Q24" t="n">
         <v>1519.933818984546</v>
@@ -6099,19 +6099,19 @@
         <v>1519.933818984546</v>
       </c>
       <c r="U24" t="n">
-        <v>1311.862952553789</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="V24" t="n">
-        <v>1076.710844322046</v>
+        <v>1289.771120813863</v>
       </c>
       <c r="W24" t="n">
-        <v>822.4734875938448</v>
+        <v>1035.533764085662</v>
       </c>
       <c r="X24" t="n">
-        <v>614.6219873883119</v>
+        <v>1035.533764085662</v>
       </c>
       <c r="Y24" t="n">
-        <v>406.861688623358</v>
+        <v>827.7734653207078</v>
       </c>
     </row>
     <row r="25">
@@ -6163,31 +6163,31 @@
         <v>301.8907513440797</v>
       </c>
       <c r="P25" t="n">
-        <v>326.0563177828075</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="Q25" t="n">
-        <v>257.9978599120807</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="R25" t="n">
-        <v>143.9313973725523</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="S25" t="n">
-        <v>143.9313973725523</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="T25" t="n">
-        <v>143.9313973725523</v>
+        <v>326.0563177828076</v>
       </c>
       <c r="U25" t="n">
-        <v>94.65518895368287</v>
+        <v>276.7801093639381</v>
       </c>
       <c r="V25" t="n">
-        <v>79.89327358222377</v>
+        <v>262.018193992479</v>
       </c>
       <c r="W25" t="n">
-        <v>30.39867637969092</v>
+        <v>212.5235967899461</v>
       </c>
       <c r="X25" t="n">
-        <v>30.39867637969092</v>
+        <v>212.5235967899461</v>
       </c>
       <c r="Y25" t="n">
         <v>30.39867637969092</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1467.668723218725</v>
+        <v>1467.668723218726</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.347290426857</v>
+        <v>1250.347290426858</v>
       </c>
       <c r="D26" t="n">
-        <v>1043.722675968651</v>
+        <v>1043.722675968652</v>
       </c>
       <c r="E26" t="n">
-        <v>809.5755075189504</v>
+        <v>809.5755075189514</v>
       </c>
       <c r="F26" t="n">
-        <v>550.2306868778869</v>
+        <v>550.2306868778879</v>
       </c>
       <c r="G26" t="n">
-        <v>282.8792022011503</v>
+        <v>282.8792022011512</v>
       </c>
       <c r="H26" t="n">
-        <v>96.78977062648494</v>
+        <v>96.78977062648482</v>
       </c>
       <c r="I26" t="n">
-        <v>55.30358097863247</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1176474631816</v>
+        <v>234.1176474631817</v>
       </c>
       <c r="K26" t="n">
-        <v>548.7338213947397</v>
+        <v>548.7338213947399</v>
       </c>
       <c r="L26" t="n">
         <v>955.5625566907889</v>
@@ -6239,34 +6239,34 @@
         <v>1850.914393529383</v>
       </c>
       <c r="O26" t="n">
-        <v>2232.150444128816</v>
+        <v>2232.150444128817</v>
       </c>
       <c r="P26" t="n">
-        <v>2541.628980717729</v>
+        <v>2541.62898071773</v>
       </c>
       <c r="Q26" t="n">
-        <v>2733.826136175391</v>
+        <v>2733.826136175392</v>
       </c>
       <c r="R26" t="n">
-        <v>2765.179048931624</v>
+        <v>2765.179048931623</v>
       </c>
       <c r="S26" t="n">
-        <v>2717.199760408318</v>
+        <v>2717.199760408319</v>
       </c>
       <c r="T26" t="n">
         <v>2645.702777461946</v>
       </c>
       <c r="U26" t="n">
-        <v>2543.499775390703</v>
+        <v>2543.499775390704</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.077972195676</v>
+        <v>2364.077972195677</v>
       </c>
       <c r="W26" t="n">
-        <v>2162.950401074106</v>
+        <v>2162.950401074107</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.12572696157</v>
+        <v>1941.125726961571</v>
       </c>
       <c r="Y26" t="n">
         <v>1702.627479134303</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>768.2969926956537</v>
+        <v>933.6824116907229</v>
       </c>
       <c r="C27" t="n">
-        <v>745.4850475630707</v>
+        <v>759.2293824095959</v>
       </c>
       <c r="D27" t="n">
         <v>610.2949727483447</v>
@@ -6297,13 +6297,13 @@
         <v>166.0624112025358</v>
       </c>
       <c r="H27" t="n">
-        <v>55.30358097863247</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="I27" t="n">
-        <v>55.30358097863247</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="J27" t="n">
-        <v>79.59153959977071</v>
+        <v>79.5915395997707</v>
       </c>
       <c r="K27" t="n">
         <v>247.7243725272378</v>
@@ -6330,25 +6330,25 @@
         <v>1984.290437959934</v>
       </c>
       <c r="S27" t="n">
-        <v>1967.534451508135</v>
+        <v>1815.893367359591</v>
       </c>
       <c r="T27" t="n">
         <v>1766.437262240956</v>
       </c>
       <c r="U27" t="n">
-        <v>1689.872509497609</v>
+        <v>1538.231425349065</v>
       </c>
       <c r="V27" t="n">
-        <v>1454.720401265866</v>
+        <v>1303.079317117322</v>
       </c>
       <c r="W27" t="n">
-        <v>1200.483044537664</v>
+        <v>1062.586295235646</v>
       </c>
       <c r="X27" t="n">
-        <v>1144.272628480676</v>
+        <v>1006.375879178657</v>
       </c>
       <c r="Y27" t="n">
-        <v>936.5123297157218</v>
+        <v>950.2566645622469</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.6290089162626</v>
+        <v>90.82450804513381</v>
       </c>
       <c r="C28" t="n">
-        <v>83.33391013689965</v>
+        <v>73.52940926577098</v>
       </c>
       <c r="D28" t="n">
-        <v>83.33391013689965</v>
+        <v>75.02351755172879</v>
       </c>
       <c r="E28" t="n">
-        <v>83.33391013689965</v>
+        <v>78.67732110561334</v>
       </c>
       <c r="F28" t="n">
-        <v>83.33391013689965</v>
+        <v>83.33391013689945</v>
       </c>
       <c r="G28" t="n">
-        <v>65.51372737958124</v>
+        <v>65.51372737958114</v>
       </c>
       <c r="H28" t="n">
-        <v>55.30358097863247</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="I28" t="n">
-        <v>55.30358097863247</v>
+        <v>56.70964489654753</v>
       </c>
       <c r="J28" t="n">
-        <v>127.202607477113</v>
+        <v>128.6086713950281</v>
       </c>
       <c r="K28" t="n">
-        <v>230.9471836229421</v>
+        <v>132.3637499801625</v>
       </c>
       <c r="L28" t="n">
-        <v>291.2788259865682</v>
+        <v>341.3188189177766</v>
       </c>
       <c r="M28" t="n">
-        <v>365.2792068330652</v>
+        <v>415.3191997642737</v>
       </c>
       <c r="N28" t="n">
-        <v>591.5780670178574</v>
+        <v>492.9946333750779</v>
       </c>
       <c r="O28" t="n">
-        <v>647.3076065761844</v>
+        <v>555.5837736901663</v>
       </c>
       <c r="P28" t="n">
-        <v>820.0965995889003</v>
+        <v>728.3727667028821</v>
       </c>
       <c r="Q28" t="n">
-        <v>820.0965995889003</v>
+        <v>810.2920987177707</v>
       </c>
       <c r="R28" t="n">
-        <v>802.8418067881054</v>
+        <v>793.0373059169759</v>
       </c>
       <c r="S28" t="n">
-        <v>732.1523626918898</v>
+        <v>722.3478618207605</v>
       </c>
       <c r="T28" t="n">
-        <v>654.5135383929305</v>
+        <v>644.7090375218012</v>
       </c>
       <c r="U28" t="n">
-        <v>516.9558412881772</v>
+        <v>507.1513404170481</v>
       </c>
       <c r="V28" t="n">
-        <v>413.9124372308344</v>
+        <v>404.1079363597053</v>
       </c>
       <c r="W28" t="n">
-        <v>276.1363513424177</v>
+        <v>266.3318504712887</v>
       </c>
       <c r="X28" t="n">
-        <v>199.7878845929444</v>
+        <v>189.9833837218155</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.6363895979583</v>
+        <v>120.8318887268294</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1250.347290426858</v>
       </c>
       <c r="D29" t="n">
-        <v>1043.722675968651</v>
+        <v>1043.722675968652</v>
       </c>
       <c r="E29" t="n">
-        <v>809.5755075189513</v>
+        <v>809.5755075189516</v>
       </c>
       <c r="F29" t="n">
-        <v>550.2306868778879</v>
+        <v>550.230686877888</v>
       </c>
       <c r="G29" t="n">
-        <v>282.8792022011512</v>
+        <v>282.8792022011513</v>
       </c>
       <c r="H29" t="n">
-        <v>96.78977062648482</v>
+        <v>96.78977062648531</v>
       </c>
       <c r="I29" t="n">
         <v>55.30358097863246</v>
       </c>
       <c r="J29" t="n">
-        <v>234.117647463182</v>
+        <v>234.1176474631817</v>
       </c>
       <c r="K29" t="n">
-        <v>548.7338213947403</v>
+        <v>548.7338213947401</v>
       </c>
       <c r="L29" t="n">
-        <v>955.5625566907895</v>
+        <v>955.5625566907893</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.09568552778</v>
+        <v>1408.095685527779</v>
       </c>
       <c r="N29" t="n">
-        <v>1850.914393529384</v>
+        <v>1850.914393529383</v>
       </c>
       <c r="O29" t="n">
         <v>2232.150444128817</v>
@@ -6488,25 +6488,25 @@
         <v>2765.179048931623</v>
       </c>
       <c r="S29" t="n">
-        <v>2717.199760408318</v>
+        <v>2717.199760408319</v>
       </c>
       <c r="T29" t="n">
         <v>2645.702777461946</v>
       </c>
       <c r="U29" t="n">
-        <v>2543.499775390704</v>
+        <v>2543.499775390705</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.077972195677</v>
+        <v>2364.077972195678</v>
       </c>
       <c r="W29" t="n">
-        <v>2162.950401074107</v>
+        <v>2162.950401074108</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.125726961571</v>
+        <v>1941.125726961572</v>
       </c>
       <c r="Y29" t="n">
-        <v>1702.627479134303</v>
+        <v>1702.627479134304</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>768.2969926956538</v>
+        <v>684.4630328995812</v>
       </c>
       <c r="C30" t="n">
-        <v>593.8439634145268</v>
+        <v>510.0100036184542</v>
       </c>
       <c r="D30" t="n">
-        <v>444.9095537532755</v>
+        <v>361.075593957203</v>
       </c>
       <c r="E30" t="n">
-        <v>285.67209874782</v>
+        <v>201.8381389517475</v>
       </c>
       <c r="F30" t="n">
-        <v>139.137540774705</v>
+        <v>55.30358097863246</v>
       </c>
       <c r="G30" t="n">
         <v>55.30358097863246</v>
@@ -6564,28 +6564,28 @@
         <v>1984.290437959934</v>
       </c>
       <c r="R30" t="n">
-        <v>1984.290437959934</v>
+        <v>1899.901781717512</v>
       </c>
       <c r="S30" t="n">
-        <v>1967.534451508135</v>
+        <v>1883.145795265713</v>
       </c>
       <c r="T30" t="n">
-        <v>1766.437262240956</v>
+        <v>1833.689690147077</v>
       </c>
       <c r="U30" t="n">
-        <v>1538.231425349065</v>
+        <v>1606.038549701536</v>
       </c>
       <c r="V30" t="n">
-        <v>1454.720401265866</v>
+        <v>1370.886441469793</v>
       </c>
       <c r="W30" t="n">
-        <v>1200.483044537664</v>
+        <v>1268.290168890136</v>
       </c>
       <c r="X30" t="n">
-        <v>992.6315443321316</v>
+        <v>1060.438668684603</v>
       </c>
       <c r="Y30" t="n">
-        <v>784.8712455671778</v>
+        <v>852.6783699196492</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.48109707641991</v>
+        <v>100.6290089162624</v>
       </c>
       <c r="C31" t="n">
-        <v>78.18599829705708</v>
+        <v>83.33391013689956</v>
       </c>
       <c r="D31" t="n">
-        <v>79.68010658301489</v>
+        <v>83.33391013689956</v>
       </c>
       <c r="E31" t="n">
-        <v>83.33391013689945</v>
+        <v>83.33391013689956</v>
       </c>
       <c r="F31" t="n">
-        <v>83.33391013689945</v>
+        <v>83.33391013689956</v>
       </c>
       <c r="G31" t="n">
-        <v>65.51372737958114</v>
+        <v>65.5137273795812</v>
       </c>
       <c r="H31" t="n">
         <v>55.30358097863246</v>
@@ -6619,52 +6619,52 @@
         <v>55.30358097863246</v>
       </c>
       <c r="J31" t="n">
-        <v>55.30358097863246</v>
+        <v>127.202607477113</v>
       </c>
       <c r="K31" t="n">
-        <v>59.0586595637668</v>
+        <v>130.9576860622473</v>
       </c>
       <c r="L31" t="n">
-        <v>268.013728501381</v>
+        <v>339.9127549998615</v>
       </c>
       <c r="M31" t="n">
-        <v>490.637535921866</v>
+        <v>562.5365624203464</v>
       </c>
       <c r="N31" t="n">
-        <v>568.3129695326702</v>
+        <v>658.2821615769564</v>
       </c>
       <c r="O31" t="n">
-        <v>624.0425090909972</v>
+        <v>714.0117011352834</v>
       </c>
       <c r="P31" t="n">
-        <v>796.8315021037131</v>
+        <v>738.1772675740112</v>
       </c>
       <c r="Q31" t="n">
-        <v>814.9486877490568</v>
+        <v>820.0965995888998</v>
       </c>
       <c r="R31" t="n">
-        <v>797.693894948262</v>
+        <v>802.841806788105</v>
       </c>
       <c r="S31" t="n">
-        <v>727.0044508520466</v>
+        <v>732.1523626918895</v>
       </c>
       <c r="T31" t="n">
-        <v>649.3656265530873</v>
+        <v>654.5135383929302</v>
       </c>
       <c r="U31" t="n">
-        <v>511.8079294483342</v>
+        <v>516.955841288177</v>
       </c>
       <c r="V31" t="n">
-        <v>408.7645253909914</v>
+        <v>413.9124372308341</v>
       </c>
       <c r="W31" t="n">
-        <v>270.9884395025748</v>
+        <v>276.1363513424175</v>
       </c>
       <c r="X31" t="n">
-        <v>194.6399727531016</v>
+        <v>199.7878845929442</v>
       </c>
       <c r="Y31" t="n">
-        <v>125.4884777581155</v>
+        <v>130.6363895979581</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1454.540059882552</v>
       </c>
       <c r="C32" t="n">
-        <v>1239.015567044519</v>
+        <v>1239.015567044518</v>
       </c>
       <c r="D32" t="n">
         <v>1034.187892540146</v>
       </c>
       <c r="E32" t="n">
-        <v>801.8376640442799</v>
+        <v>801.8376640442791</v>
       </c>
       <c r="F32" t="n">
-        <v>544.2897833570503</v>
+        <v>544.2897833570494</v>
       </c>
       <c r="G32" t="n">
-        <v>278.7352386341461</v>
+        <v>278.7352386341465</v>
       </c>
       <c r="H32" t="n">
         <v>94.44274701331403</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>388.4439816058781</v>
+        <v>619.6997047954408</v>
       </c>
       <c r="C33" t="n">
-        <v>213.990952324751</v>
+        <v>445.2466755143138</v>
       </c>
       <c r="D33" t="n">
-        <v>213.990952324751</v>
+        <v>296.3122658530625</v>
       </c>
       <c r="E33" t="n">
-        <v>54.75349731929555</v>
+        <v>137.074810847607</v>
       </c>
       <c r="F33" t="n">
-        <v>54.75349731929555</v>
+        <v>137.074810847607</v>
       </c>
       <c r="G33" t="n">
         <v>54.75349731929555</v>
@@ -6777,7 +6777,7 @@
         <v>54.75349731929555</v>
       </c>
       <c r="J33" t="n">
-        <v>79.04145594043378</v>
+        <v>79.04145594043379</v>
       </c>
       <c r="K33" t="n">
         <v>247.1742888679009</v>
@@ -6801,28 +6801,28 @@
         <v>1983.740354300598</v>
       </c>
       <c r="R33" t="n">
-        <v>1905.922655213413</v>
+        <v>1983.740354300598</v>
       </c>
       <c r="S33" t="n">
-        <v>1737.52558461307</v>
+        <v>1815.343283700254</v>
       </c>
       <c r="T33" t="n">
-        <v>1689.866419448268</v>
+        <v>1614.246094433075</v>
       </c>
       <c r="U33" t="n">
-        <v>1461.660582556377</v>
+        <v>1386.040257541184</v>
       </c>
       <c r="V33" t="n">
-        <v>1226.508474324634</v>
+        <v>1304.326173411819</v>
       </c>
       <c r="W33" t="n">
-        <v>972.2711175964328</v>
+        <v>1050.088816683618</v>
       </c>
       <c r="X33" t="n">
-        <v>764.4196173908999</v>
+        <v>842.2373164780847</v>
       </c>
       <c r="Y33" t="n">
-        <v>556.6593186259461</v>
+        <v>787.9150418155087</v>
       </c>
     </row>
     <row r="34">
@@ -6856,25 +6856,25 @@
         <v>54.75349731929555</v>
       </c>
       <c r="J34" t="n">
-        <v>54.75349731929555</v>
+        <v>128.4137046665287</v>
       </c>
       <c r="K34" t="n">
-        <v>205.3114588200922</v>
+        <v>132.168783251663</v>
       </c>
       <c r="L34" t="n">
-        <v>416.027708606459</v>
+        <v>342.8850330380299</v>
       </c>
       <c r="M34" t="n">
-        <v>490.028089452956</v>
+        <v>416.8854138845269</v>
       </c>
       <c r="N34" t="n">
-        <v>718.0881304865009</v>
+        <v>644.9454549180717</v>
       </c>
       <c r="O34" t="n">
-        <v>773.8176700448279</v>
+        <v>700.6749944763988</v>
       </c>
       <c r="P34" t="n">
-        <v>797.9832364835557</v>
+        <v>724.8405609151266</v>
       </c>
       <c r="Q34" t="n">
         <v>797.9832364835557</v>
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>976.4062224952086</v>
+        <v>976.4062224952089</v>
       </c>
       <c r="C35" t="n">
-        <v>830.5817726497137</v>
+        <v>830.5817726497139</v>
       </c>
       <c r="D35" t="n">
-        <v>695.45414113788</v>
+        <v>695.4541411378802</v>
       </c>
       <c r="E35" t="n">
-        <v>532.8039556345525</v>
+        <v>532.8039556345527</v>
       </c>
       <c r="F35" t="n">
-        <v>344.9561179398617</v>
+        <v>344.956117939862</v>
       </c>
       <c r="G35" t="n">
         <v>149.1016162094972</v>
       </c>
       <c r="H35" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="I35" t="n">
-        <v>63.92274609308359</v>
+        <v>63.9227460930836</v>
       </c>
       <c r="J35" t="n">
-        <v>94.11338600364482</v>
+        <v>141.637078319878</v>
       </c>
       <c r="K35" t="n">
-        <v>260.106133361215</v>
+        <v>307.6298256774483</v>
       </c>
       <c r="L35" t="n">
-        <v>518.3114420832762</v>
+        <v>565.8351343995095</v>
       </c>
       <c r="M35" t="n">
-        <v>822.2211443462783</v>
+        <v>869.7448366625115</v>
       </c>
       <c r="N35" t="n">
-        <v>1116.416425773894</v>
+        <v>1163.940118090127</v>
       </c>
       <c r="O35" t="n">
-        <v>1497.979847857544</v>
+        <v>1396.552742115573</v>
       </c>
       <c r="P35" t="n">
-        <v>1658.834957872469</v>
+        <v>1557.407852130498</v>
       </c>
       <c r="Q35" t="n">
-        <v>1702.408686756143</v>
+        <v>1600.981581014172</v>
       </c>
       <c r="R35" t="n">
         <v>1702.408686756143</v>
@@ -6977,7 +6977,7 @@
         <v>1457.196951511472</v>
       </c>
       <c r="X35" t="n">
-        <v>1306.869260345308</v>
+        <v>1306.869260345309</v>
       </c>
       <c r="Y35" t="n">
         <v>1139.867995464414</v>
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>394.388281469953</v>
+        <v>993.8820429025949</v>
       </c>
       <c r="C36" t="n">
-        <v>219.935252188826</v>
+        <v>819.4290136214679</v>
       </c>
       <c r="D36" t="n">
-        <v>219.935252188826</v>
+        <v>670.4946039602166</v>
       </c>
       <c r="E36" t="n">
-        <v>219.935252188826</v>
+        <v>511.2571489547612</v>
       </c>
       <c r="F36" t="n">
-        <v>219.935252188826</v>
+        <v>364.7225909816461</v>
       </c>
       <c r="G36" t="n">
-        <v>219.935252188826</v>
+        <v>226.2620424144079</v>
       </c>
       <c r="H36" t="n">
-        <v>115.5032121905045</v>
+        <v>115.5032121905046</v>
       </c>
       <c r="I36" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="J36" t="n">
-        <v>58.79712620234207</v>
+        <v>58.79712620234208</v>
       </c>
       <c r="K36" t="n">
         <v>226.9299591298092</v>
@@ -7026,40 +7026,40 @@
         <v>901.8642157224042</v>
       </c>
       <c r="N36" t="n">
-        <v>1315.280514837116</v>
+        <v>1077.242869334802</v>
       </c>
       <c r="O36" t="n">
-        <v>1492.230936696917</v>
+        <v>1389.022337343821</v>
       </c>
       <c r="P36" t="n">
-        <v>1725.458379060192</v>
+        <v>1622.249779707096</v>
       </c>
       <c r="Q36" t="n">
         <v>1725.458379060192</v>
       </c>
       <c r="R36" t="n">
-        <v>1641.069722817769</v>
+        <v>1641.06972281777</v>
       </c>
       <c r="S36" t="n">
-        <v>1472.672652217426</v>
+        <v>1641.06972281777</v>
       </c>
       <c r="T36" t="n">
-        <v>1472.672652217426</v>
+        <v>1439.97253355059</v>
       </c>
       <c r="U36" t="n">
-        <v>1467.604882420452</v>
+        <v>1211.766696658699</v>
       </c>
       <c r="V36" t="n">
-        <v>1232.452774188709</v>
+        <v>1199.752655521873</v>
       </c>
       <c r="W36" t="n">
-        <v>978.2154174605078</v>
+        <v>1162.097379922663</v>
       </c>
       <c r="X36" t="n">
-        <v>770.3639172549749</v>
+        <v>1162.097379922663</v>
       </c>
       <c r="Y36" t="n">
-        <v>562.6036184900211</v>
+        <v>1162.097379922663</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.50916758120383</v>
+        <v>155.2872456172389</v>
       </c>
       <c r="C37" t="n">
-        <v>34.50916758120383</v>
+        <v>155.2872456172389</v>
       </c>
       <c r="D37" t="n">
-        <v>34.50916758120383</v>
+        <v>155.2872456172389</v>
       </c>
       <c r="E37" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="F37" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="G37" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="H37" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="I37" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="J37" t="n">
-        <v>34.50916758120383</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="K37" t="n">
-        <v>38.26424616633817</v>
+        <v>38.26424616633818</v>
       </c>
       <c r="L37" t="n">
-        <v>98.59588852996431</v>
+        <v>98.59588852996433</v>
       </c>
       <c r="M37" t="n">
-        <v>172.5962693764613</v>
+        <v>172.5962693764614</v>
       </c>
       <c r="N37" t="n">
-        <v>250.2717029872655</v>
+        <v>250.2717029872656</v>
       </c>
       <c r="O37" t="n">
         <v>306.0012425455926</v>
@@ -7135,10 +7135,10 @@
         <v>160.1387294203394</v>
       </c>
       <c r="X37" t="n">
-        <v>34.50916758120383</v>
+        <v>155.2872456172389</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.50916758120383</v>
+        <v>155.2872456172389</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>976.4062224952086</v>
+        <v>976.4062224952081</v>
       </c>
       <c r="C38" t="n">
-        <v>830.5817726497137</v>
+        <v>830.5817726497132</v>
       </c>
       <c r="D38" t="n">
-        <v>695.45414113788</v>
+        <v>695.4541411378796</v>
       </c>
       <c r="E38" t="n">
-        <v>532.8039556345525</v>
+        <v>532.803955634552</v>
       </c>
       <c r="F38" t="n">
-        <v>344.9561179398618</v>
+        <v>344.9561179398613</v>
       </c>
       <c r="G38" t="n">
-        <v>149.1016162094972</v>
+        <v>149.1016162094971</v>
       </c>
       <c r="H38" t="n">
         <v>34.50916758120383</v>
       </c>
       <c r="I38" t="n">
-        <v>34.50916758120383</v>
+        <v>63.92274609308359</v>
       </c>
       <c r="J38" t="n">
-        <v>64.69980749176507</v>
+        <v>94.11338600364483</v>
       </c>
       <c r="K38" t="n">
-        <v>230.6925548493353</v>
+        <v>260.106133361215</v>
       </c>
       <c r="L38" t="n">
-        <v>488.8978635713965</v>
+        <v>518.3114420832762</v>
       </c>
       <c r="M38" t="n">
-        <v>792.8075658343985</v>
+        <v>822.2211443462783</v>
       </c>
       <c r="N38" t="n">
-        <v>1219.858514651796</v>
+        <v>1116.416425773894</v>
       </c>
       <c r="O38" t="n">
-        <v>1452.471138677241</v>
+        <v>1349.02904979934</v>
       </c>
       <c r="P38" t="n">
-        <v>1613.326248692166</v>
+        <v>1509.884159814265</v>
       </c>
       <c r="Q38" t="n">
-        <v>1656.89997757584</v>
+        <v>1600.981581014171</v>
       </c>
       <c r="R38" t="n">
-        <v>1702.408686756143</v>
+        <v>1702.408686756142</v>
       </c>
       <c r="S38" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="T38" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="U38" t="n">
-        <v>1694.752359935323</v>
+        <v>1694.752359935322</v>
       </c>
       <c r="V38" t="n">
-        <v>1586.827539686669</v>
+        <v>1586.827539686668</v>
       </c>
       <c r="W38" t="n">
-        <v>1457.196951511472</v>
+        <v>1457.196951511471</v>
       </c>
       <c r="X38" t="n">
         <v>1306.869260345308</v>
       </c>
       <c r="Y38" t="n">
-        <v>1139.867995464414</v>
+        <v>1139.867995464413</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>802.1291680693909</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="C39" t="n">
-        <v>627.6761387882639</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="D39" t="n">
-        <v>478.7417291270127</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="E39" t="n">
-        <v>319.5042741215572</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="F39" t="n">
-        <v>172.9697161484421</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="G39" t="n">
         <v>34.50916758120383</v>
@@ -7251,52 +7251,52 @@
         <v>34.50916758120383</v>
       </c>
       <c r="J39" t="n">
-        <v>34.50916758120383</v>
+        <v>58.79712620234206</v>
       </c>
       <c r="K39" t="n">
-        <v>202.6420005086709</v>
+        <v>226.9299591298092</v>
       </c>
       <c r="L39" t="n">
-        <v>490.1217395467792</v>
+        <v>514.4096981679174</v>
       </c>
       <c r="M39" t="n">
-        <v>663.8265702200899</v>
+        <v>901.8642157224042</v>
       </c>
       <c r="N39" t="n">
-        <v>1077.242869334802</v>
+        <v>1315.280514837116</v>
       </c>
       <c r="O39" t="n">
-        <v>1389.022337343821</v>
+        <v>1627.059982846135</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.249779707095</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="Q39" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="R39" t="n">
-        <v>1725.458379060192</v>
+        <v>1641.069722817769</v>
       </c>
       <c r="S39" t="n">
-        <v>1725.458379060192</v>
+        <v>1472.672652217426</v>
       </c>
       <c r="T39" t="n">
-        <v>1672.562038611331</v>
+        <v>1271.575462950246</v>
       </c>
       <c r="U39" t="n">
-        <v>1444.35620171944</v>
+        <v>1043.369626058355</v>
       </c>
       <c r="V39" t="n">
-        <v>1209.204093487697</v>
+        <v>808.2175178266123</v>
       </c>
       <c r="W39" t="n">
-        <v>1178.104803854413</v>
+        <v>553.9801610984107</v>
       </c>
       <c r="X39" t="n">
-        <v>1178.104803854413</v>
+        <v>410.4848033662258</v>
       </c>
       <c r="Y39" t="n">
-        <v>970.3445050894588</v>
+        <v>202.7245046012719</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.2872456172389</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="C40" t="n">
-        <v>155.2872456172389</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="D40" t="n">
-        <v>155.2872456172389</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="E40" t="n">
         <v>34.50916758120383</v>
@@ -7333,7 +7333,7 @@
         <v>34.50916758120383</v>
       </c>
       <c r="K40" t="n">
-        <v>38.26424616633817</v>
+        <v>38.26424616633816</v>
       </c>
       <c r="L40" t="n">
         <v>98.59588852996431</v>
@@ -7369,13 +7369,13 @@
         <v>226.4178323623833</v>
       </c>
       <c r="W40" t="n">
-        <v>160.1387294203394</v>
+        <v>39.3606513843044</v>
       </c>
       <c r="X40" t="n">
-        <v>155.2872456172389</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2872456172389</v>
+        <v>34.50916758120383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.127662321285</v>
+        <v>1091.127662321284</v>
       </c>
       <c r="C41" t="n">
-        <v>926.9926243602274</v>
+        <v>926.9926243602266</v>
       </c>
       <c r="D41" t="n">
-        <v>773.554404732831</v>
+        <v>773.5544047328302</v>
       </c>
       <c r="E41" t="n">
-        <v>592.593631113941</v>
+        <v>592.5936311139401</v>
       </c>
       <c r="F41" t="n">
-        <v>386.4352053036876</v>
+        <v>386.4352053036866</v>
       </c>
       <c r="G41" t="n">
-        <v>172.2701154577601</v>
+        <v>172.2701154577602</v>
       </c>
       <c r="H41" t="n">
         <v>39.36707871390413</v>
       </c>
       <c r="I41" t="n">
-        <v>39.36707871390413</v>
+        <v>50.83444981372089</v>
       </c>
       <c r="J41" t="n">
-        <v>69.55771862446537</v>
+        <v>81.02508972428214</v>
       </c>
       <c r="K41" t="n">
-        <v>436.3018781297005</v>
+        <v>247.0178370818523</v>
       </c>
       <c r="L41" t="n">
-        <v>727.3525920408925</v>
+        <v>505.2231458039136</v>
       </c>
       <c r="M41" t="n">
-        <v>1031.262294303895</v>
+        <v>809.1328480669156</v>
       </c>
       <c r="N41" t="n">
-        <v>1325.457575731511</v>
+        <v>1103.328129494532</v>
       </c>
       <c r="O41" t="n">
-        <v>1558.070199756956</v>
+        <v>1536.692165667642</v>
       </c>
       <c r="P41" t="n">
-        <v>1718.925309771881</v>
+        <v>1836.195823589638</v>
       </c>
       <c r="Q41" t="n">
-        <v>1963.25045080322</v>
+        <v>1879.769552473312</v>
       </c>
       <c r="R41" t="n">
         <v>1963.25045080322</v>
@@ -7439,7 +7439,7 @@
         <v>1968.353935695206</v>
       </c>
       <c r="T41" t="n">
-        <v>1950.043347579644</v>
+        <v>1950.043347579643</v>
       </c>
       <c r="U41" t="n">
         <v>1901.026740339212</v>
@@ -7448,7 +7448,7 @@
         <v>1774.791331974996</v>
       </c>
       <c r="W41" t="n">
-        <v>1626.850155684236</v>
+        <v>1626.850155684235</v>
       </c>
       <c r="X41" t="n">
         <v>1458.21187640251</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>465.8343085856366</v>
+        <v>465.6525750053613</v>
       </c>
       <c r="C42" t="n">
-        <v>291.3812793045096</v>
+        <v>445.5948765721737</v>
       </c>
       <c r="D42" t="n">
-        <v>142.4468696432583</v>
+        <v>296.6604669109225</v>
       </c>
       <c r="E42" t="n">
-        <v>142.4468696432583</v>
+        <v>296.6604669109225</v>
       </c>
       <c r="F42" t="n">
-        <v>142.4468696432583</v>
+        <v>150.1259089378075</v>
       </c>
       <c r="G42" t="n">
-        <v>39.36707871390413</v>
+        <v>150.1259089378075</v>
       </c>
       <c r="H42" t="n">
         <v>39.36707871390413</v>
@@ -7488,16 +7488,16 @@
         <v>39.36707871390413</v>
       </c>
       <c r="J42" t="n">
-        <v>63.65503733504261</v>
+        <v>63.65503733504244</v>
       </c>
       <c r="K42" t="n">
         <v>231.7878702625096</v>
       </c>
       <c r="L42" t="n">
-        <v>519.267609300618</v>
+        <v>519.2676093006178</v>
       </c>
       <c r="M42" t="n">
-        <v>906.7221268551048</v>
+        <v>906.7221268551045</v>
       </c>
       <c r="N42" t="n">
         <v>1320.138425969817</v>
@@ -7515,25 +7515,25 @@
         <v>1968.353935695206</v>
       </c>
       <c r="S42" t="n">
-        <v>1968.353935695206</v>
+        <v>1799.956865094863</v>
       </c>
       <c r="T42" t="n">
-        <v>1767.256746428026</v>
+        <v>1598.859675827683</v>
       </c>
       <c r="U42" t="n">
-        <v>1539.050909536136</v>
+        <v>1370.653838935792</v>
       </c>
       <c r="V42" t="n">
-        <v>1303.898801304393</v>
+        <v>1135.50173070405</v>
       </c>
       <c r="W42" t="n">
-        <v>1049.661444576191</v>
+        <v>881.264373975848</v>
       </c>
       <c r="X42" t="n">
-        <v>841.8099443706585</v>
+        <v>673.4128737703152</v>
       </c>
       <c r="Y42" t="n">
-        <v>634.0496456057047</v>
+        <v>465.6525750053613</v>
       </c>
     </row>
     <row r="43">
@@ -7555,61 +7555,61 @@
         <v>39.36707871390413</v>
       </c>
       <c r="F43" t="n">
-        <v>39.36707871390413</v>
+        <v>43.61009068526397</v>
       </c>
       <c r="G43" t="n">
-        <v>39.36707871390413</v>
+        <v>43.61009068526397</v>
       </c>
       <c r="H43" t="n">
-        <v>39.36707871390413</v>
+        <v>43.61009068526397</v>
       </c>
       <c r="I43" t="n">
-        <v>39.36707871390413</v>
+        <v>43.61009068526397</v>
       </c>
       <c r="J43" t="n">
-        <v>39.36707871390413</v>
+        <v>43.61009068526397</v>
       </c>
       <c r="K43" t="n">
-        <v>47.36516927039783</v>
+        <v>47.3651692703983</v>
       </c>
       <c r="L43" t="n">
-        <v>107.696811634024</v>
+        <v>107.6968116340245</v>
       </c>
       <c r="M43" t="n">
-        <v>181.697192480521</v>
+        <v>181.6971924805215</v>
       </c>
       <c r="N43" t="n">
-        <v>259.3726260913252</v>
+        <v>259.3726260913257</v>
       </c>
       <c r="O43" t="n">
-        <v>315.1021656496522</v>
+        <v>315.1021656496528</v>
       </c>
       <c r="P43" t="n">
-        <v>339.2677320883801</v>
+        <v>339.2677320883807</v>
       </c>
       <c r="Q43" t="n">
-        <v>339.2677320883801</v>
+        <v>339.2677320883807</v>
       </c>
       <c r="R43" t="n">
-        <v>339.2677320883801</v>
+        <v>339.2677320883807</v>
       </c>
       <c r="S43" t="n">
-        <v>321.7646828229747</v>
+        <v>321.7646828229753</v>
       </c>
       <c r="T43" t="n">
-        <v>297.3122533548255</v>
+        <v>297.312253354826</v>
       </c>
       <c r="U43" t="n">
-        <v>212.9409510808825</v>
+        <v>212.9409510808828</v>
       </c>
       <c r="V43" t="n">
-        <v>163.0839418543497</v>
+        <v>163.08394185435</v>
       </c>
       <c r="W43" t="n">
-        <v>78.49425079674326</v>
+        <v>78.49425079674343</v>
       </c>
       <c r="X43" t="n">
-        <v>55.33217887808008</v>
+        <v>55.33217887808016</v>
       </c>
       <c r="Y43" t="n">
         <v>39.36707871390413</v>
@@ -7625,61 +7625,61 @@
         <v>1091.127662321284</v>
       </c>
       <c r="C44" t="n">
-        <v>926.9926243602263</v>
+        <v>926.9926243602267</v>
       </c>
       <c r="D44" t="n">
-        <v>773.5544047328301</v>
+        <v>773.5544047328303</v>
       </c>
       <c r="E44" t="n">
-        <v>592.5936311139401</v>
+        <v>592.5936311139402</v>
       </c>
       <c r="F44" t="n">
-        <v>386.4352053036866</v>
+        <v>386.4352053036868</v>
       </c>
       <c r="G44" t="n">
         <v>172.2701154577601</v>
       </c>
       <c r="H44" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="I44" t="n">
-        <v>39.36707871390411</v>
+        <v>50.83444981372094</v>
       </c>
       <c r="J44" t="n">
-        <v>270.3091307721303</v>
+        <v>81.0250897242822</v>
       </c>
       <c r="K44" t="n">
-        <v>436.3018781297005</v>
+        <v>247.0178370818524</v>
       </c>
       <c r="L44" t="n">
-        <v>694.5071868517617</v>
+        <v>505.2231458039136</v>
       </c>
       <c r="M44" t="n">
-        <v>998.4168891147638</v>
+        <v>809.1328480669156</v>
       </c>
       <c r="N44" t="n">
-        <v>1325.45757573151</v>
+        <v>1247.080162293589</v>
       </c>
       <c r="O44" t="n">
-        <v>1558.070199756955</v>
+        <v>1479.692786319034</v>
       </c>
       <c r="P44" t="n">
-        <v>1718.92530977188</v>
+        <v>1841.299308481624</v>
       </c>
       <c r="Q44" t="n">
-        <v>1963.250450803219</v>
+        <v>1884.873037365298</v>
       </c>
       <c r="R44" t="n">
-        <v>1963.250450803219</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="S44" t="n">
-        <v>1968.353935695205</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="T44" t="n">
-        <v>1950.043347579643</v>
+        <v>1950.043347579644</v>
       </c>
       <c r="U44" t="n">
-        <v>1901.026740339211</v>
+        <v>1901.026740339212</v>
       </c>
       <c r="V44" t="n">
         <v>1774.791331974995</v>
@@ -7691,7 +7691,7 @@
         <v>1458.211876402509</v>
       </c>
       <c r="Y44" t="n">
-        <v>1272.900023406051</v>
+        <v>1272.900023406052</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>519.5921209736016</v>
+        <v>677.7523667810533</v>
       </c>
       <c r="C45" t="n">
-        <v>345.1390916924746</v>
+        <v>677.7523667810533</v>
       </c>
       <c r="D45" t="n">
-        <v>345.1390916924746</v>
+        <v>528.817957119802</v>
       </c>
       <c r="E45" t="n">
-        <v>185.9016366870191</v>
+        <v>369.5805021143465</v>
       </c>
       <c r="F45" t="n">
-        <v>39.36707871390411</v>
+        <v>369.5805021143465</v>
       </c>
       <c r="G45" t="n">
-        <v>39.36707871390411</v>
+        <v>231.1199535471082</v>
       </c>
       <c r="H45" t="n">
-        <v>39.36707871390411</v>
+        <v>120.3611233232049</v>
       </c>
       <c r="I45" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="J45" t="n">
-        <v>63.65503733504234</v>
+        <v>63.65503733504261</v>
       </c>
       <c r="K45" t="n">
-        <v>231.7878702625094</v>
+        <v>231.7878702625096</v>
       </c>
       <c r="L45" t="n">
-        <v>519.2676093006177</v>
+        <v>519.2676093006178</v>
       </c>
       <c r="M45" t="n">
-        <v>906.7221268551043</v>
+        <v>906.7221268551045</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.138425969816</v>
+        <v>1320.138425969817</v>
       </c>
       <c r="O45" t="n">
-        <v>1631.917893978834</v>
+        <v>1631.917893978835</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.145336342109</v>
+        <v>1865.14533634211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1968.353935695205</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="R45" t="n">
-        <v>1968.353935695205</v>
+        <v>1939.014106532258</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.956865094862</v>
+        <v>1770.617035931914</v>
       </c>
       <c r="T45" t="n">
-        <v>1616.187079836637</v>
+        <v>1569.519846664735</v>
       </c>
       <c r="U45" t="n">
-        <v>1592.808721924101</v>
+        <v>1546.141488752198</v>
       </c>
       <c r="V45" t="n">
-        <v>1357.656613692358</v>
+        <v>1515.81685949981</v>
       </c>
       <c r="W45" t="n">
-        <v>1103.419256964156</v>
+        <v>1261.579502771608</v>
       </c>
       <c r="X45" t="n">
-        <v>895.5677567586235</v>
+        <v>1053.728002566075</v>
       </c>
       <c r="Y45" t="n">
-        <v>687.8074579936697</v>
+        <v>845.9677038011214</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="C46" t="n">
-        <v>39.36707871390411</v>
+        <v>43.61009068526351</v>
       </c>
       <c r="D46" t="n">
-        <v>39.36707871390411</v>
+        <v>43.61009068526351</v>
       </c>
       <c r="E46" t="n">
-        <v>39.36707871390411</v>
+        <v>43.61009068526351</v>
       </c>
       <c r="F46" t="n">
-        <v>43.6100906852635</v>
+        <v>43.61009068526351</v>
       </c>
       <c r="G46" t="n">
-        <v>43.6100906852635</v>
+        <v>43.61009068526351</v>
       </c>
       <c r="H46" t="n">
-        <v>43.6100906852635</v>
+        <v>43.61009068526351</v>
       </c>
       <c r="I46" t="n">
-        <v>43.6100906852635</v>
+        <v>43.61009068526351</v>
       </c>
       <c r="J46" t="n">
-        <v>43.6100906852635</v>
+        <v>43.61009068526351</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36516927039783</v>
+        <v>47.36516927039785</v>
       </c>
       <c r="L46" t="n">
         <v>107.696811634024</v>
@@ -7819,37 +7819,37 @@
         <v>259.3726260913252</v>
       </c>
       <c r="O46" t="n">
-        <v>315.1021656496522</v>
+        <v>315.1021656496523</v>
       </c>
       <c r="P46" t="n">
-        <v>339.2677320883801</v>
+        <v>339.2677320883802</v>
       </c>
       <c r="Q46" t="n">
-        <v>339.2677320883801</v>
+        <v>339.2677320883802</v>
       </c>
       <c r="R46" t="n">
-        <v>339.2677320883801</v>
+        <v>339.2677320883802</v>
       </c>
       <c r="S46" t="n">
-        <v>321.7646828229747</v>
+        <v>321.7646828229749</v>
       </c>
       <c r="T46" t="n">
-        <v>297.3122533548255</v>
+        <v>297.3122533548257</v>
       </c>
       <c r="U46" t="n">
-        <v>212.9409510808825</v>
+        <v>212.9409510808826</v>
       </c>
       <c r="V46" t="n">
-        <v>163.0839418543497</v>
+        <v>163.0839418543498</v>
       </c>
       <c r="W46" t="n">
-        <v>78.49425079674324</v>
+        <v>78.49425079674332</v>
       </c>
       <c r="X46" t="n">
-        <v>55.33217887808006</v>
+        <v>55.33217887808011</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.36707871390411</v>
+        <v>39.36707871390413</v>
       </c>
     </row>
   </sheetData>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
         <v>145.8018296893165</v>
@@ -8623,7 +8623,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.3203189461499</v>
+        <v>374.3519653142515</v>
       </c>
       <c r="N12" t="n">
-        <v>61.75015301556154</v>
+        <v>441.7336077616981</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>78.9335637120642</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5491141895098</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720741</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.5577438039056</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>94.63409264139969</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.3203189461499</v>
+        <v>454.3203189461498</v>
       </c>
       <c r="N15" t="n">
-        <v>441.7336077616981</v>
+        <v>386.6708841372258</v>
       </c>
       <c r="O15" t="n">
-        <v>297.5807564455213</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>82.8794935255185</v>
       </c>
       <c r="Q15" t="n">
         <v>105.826177278176</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>439.4066644957222</v>
+        <v>439.4066644957226</v>
       </c>
       <c r="N18" t="n">
-        <v>61.75015301556154</v>
+        <v>61.75015301556152</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.5577438039056</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>80.45677051749132</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>454.3203189461499</v>
@@ -9492,10 +9492,10 @@
         <v>441.7336077616981</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>127.7496120743422</v>
       </c>
       <c r="P21" t="n">
-        <v>318.2003446870143</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>105.826177278176</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.5577438039056</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.63409264139969</v>
       </c>
       <c r="L24" t="n">
-        <v>355.9266908530317</v>
+        <v>274.5587824722505</v>
       </c>
       <c r="M24" t="n">
         <v>454.3203189461498</v>
       </c>
       <c r="N24" t="n">
-        <v>61.75015301556154</v>
+        <v>441.7336077616981</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>105.826177278176</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>238.9003081796002</v>
       </c>
       <c r="O36" t="n">
-        <v>257.6713635704489</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.826177278176</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.5577438039056</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>249.7962891225495</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>182.2718129336561</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.826177278176</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404089</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435528</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>223.303080436662</v>
       </c>
       <c r="E11" t="n">
-        <v>250.5504088882408</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.4960845576904</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.422681953007</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.973249381957</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.52672523994659</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.9256841735669</v>
+        <v>119.925684173567</v>
       </c>
       <c r="V11" t="n">
-        <v>196.3722972861139</v>
+        <v>190.4680199821734</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.8610075333921</v>
       </c>
       <c r="X11" t="n">
-        <v>51.22454584316621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.8579774720326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.8929305869867</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>223.3030804366621</v>
+        <v>223.303080436662</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.5504088882408</v>
       </c>
       <c r="F14" t="n">
-        <v>164.6227090686431</v>
+        <v>275.4960845576905</v>
       </c>
       <c r="G14" t="n">
-        <v>283.4226819530072</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.81603987441164</v>
+        <v>59.81603987441153</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.52672523994676</v>
+        <v>27.55754586925881</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.3722972861141</v>
+        <v>196.372297286114</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.8610075333921</v>
       </c>
       <c r="X14" t="n">
-        <v>238.3511394944482</v>
+        <v>238.3511394944481</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953138.9510958376</v>
+        <v>953138.9510958378</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953138.9510958375</v>
+        <v>953138.9510958378</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622972</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="D2" t="n">
-        <v>471713.3279894934</v>
+        <v>471713.3279894933</v>
       </c>
       <c r="E2" t="n">
-        <v>403933.4086396201</v>
+        <v>403933.40863962</v>
       </c>
       <c r="F2" t="n">
-        <v>403933.40863962</v>
+        <v>403933.4086396199</v>
       </c>
       <c r="G2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="H2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="I2" t="n">
         <v>472099.0176719632</v>
       </c>
-      <c r="I2" t="n">
-        <v>472099.0176719633</v>
-      </c>
       <c r="J2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="K2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="L2" t="n">
         <v>472099.0176719634</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="N2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="O2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="P2" t="n">
         <v>472099.0176719631</v>
-      </c>
-      <c r="P2" t="n">
-        <v>472099.017671963</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84914.70873765013</v>
+        <v>84914.70873765004</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86337.88518108656</v>
+        <v>86337.88518108652</v>
       </c>
       <c r="M3" t="n">
-        <v>85120.19345298689</v>
+        <v>85120.19345298692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35296.30877041448</v>
+        <v>35296.30877041446</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>293597.4214810666</v>
+        <v>293597.4214810667</v>
       </c>
       <c r="F4" t="n">
         <v>293597.4214810666</v>
       </c>
       <c r="G4" t="n">
-        <v>361024.1181204227</v>
+        <v>361024.1181204226</v>
       </c>
       <c r="H4" t="n">
         <v>361024.1181204227</v>
@@ -26442,7 +26442,7 @@
         <v>358989.4917677018</v>
       </c>
       <c r="K4" t="n">
-        <v>358989.4917677019</v>
+        <v>358989.4917677018</v>
       </c>
       <c r="L4" t="n">
         <v>358954.9034898143</v>
@@ -26454,10 +26454,10 @@
         <v>359654.5399480487</v>
       </c>
       <c r="O4" t="n">
+        <v>358037.2508852225</v>
+      </c>
+      <c r="P4" t="n">
         <v>358037.2508852226</v>
-      </c>
-      <c r="P4" t="n">
-        <v>358037.2508852225</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>36859.86279422477</v>
+        <v>36859.86279422475</v>
       </c>
       <c r="F5" t="n">
         <v>36859.86279422475</v>
@@ -26494,7 +26494,7 @@
         <v>57363.43949289199</v>
       </c>
       <c r="K5" t="n">
-        <v>57363.43949289199</v>
+        <v>57363.43949289198</v>
       </c>
       <c r="L5" t="n">
         <v>57094.932187325</v>
@@ -26503,13 +26503,13 @@
         <v>47510.25837157165</v>
       </c>
       <c r="N5" t="n">
-        <v>47510.25837157165</v>
+        <v>47510.25837157164</v>
       </c>
       <c r="O5" t="n">
         <v>49678.3115284595</v>
       </c>
       <c r="P5" t="n">
-        <v>49678.31152845949</v>
+        <v>49678.3115284595</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11933.15559619366</v>
+        <v>11928.74201832549</v>
       </c>
       <c r="C6" t="n">
-        <v>11933.15559619349</v>
+        <v>11928.74201832543</v>
       </c>
       <c r="D6" t="n">
-        <v>10110.89105011505</v>
+        <v>10109.21413845202</v>
       </c>
       <c r="E6" t="n">
-        <v>-242971.6178076352</v>
+        <v>-243267.9900208194</v>
       </c>
       <c r="F6" t="n">
-        <v>73476.12436432869</v>
+        <v>73179.75215114446</v>
       </c>
       <c r="G6" t="n">
-        <v>-19623.0402914165</v>
+        <v>-19623.04029141615</v>
       </c>
       <c r="H6" t="n">
+        <v>65291.6684462338</v>
+      </c>
+      <c r="I6" t="n">
         <v>65291.66844623386</v>
       </c>
-      <c r="I6" t="n">
-        <v>65291.66844623392</v>
-      </c>
       <c r="J6" t="n">
-        <v>-60891.67923269593</v>
+        <v>-60891.67923269547</v>
       </c>
       <c r="K6" t="n">
-        <v>55746.08641136946</v>
+        <v>55746.0864113697</v>
       </c>
       <c r="L6" t="n">
-        <v>-30288.70318626243</v>
+        <v>-30288.70318626231</v>
       </c>
       <c r="M6" t="n">
-        <v>-20185.97410064416</v>
+        <v>-20185.97410064417</v>
       </c>
       <c r="N6" t="n">
-        <v>64934.21935234267</v>
+        <v>64934.21935234273</v>
       </c>
       <c r="O6" t="n">
-        <v>29087.14648786651</v>
+        <v>29087.14648786657</v>
       </c>
       <c r="P6" t="n">
-        <v>64383.45525828096</v>
+        <v>64383.45525828101</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="F2" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="G2" t="n">
         <v>237.5233471060835</v>
@@ -26707,7 +26707,7 @@
         <v>237.5233471060835</v>
       </c>
       <c r="J2" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="K2" t="n">
         <v>150.1246733070586</v>
@@ -26722,7 +26722,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="O2" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="P2" t="n">
         <v>202.7792041895606</v>
@@ -26811,7 +26811,7 @@
         <v>379.9834547461365</v>
       </c>
       <c r="J4" t="n">
-        <v>691.2947622329059</v>
+        <v>691.2947622329058</v>
       </c>
       <c r="K4" t="n">
         <v>691.2947622329058</v>
@@ -26820,16 +26820,16 @@
         <v>684.4187164911943</v>
       </c>
       <c r="M4" t="n">
-        <v>431.3645947650479</v>
+        <v>431.364594765048</v>
       </c>
       <c r="N4" t="n">
-        <v>431.3645947650479</v>
+        <v>431.3645947650478</v>
       </c>
       <c r="O4" t="n">
         <v>492.0884839238016</v>
       </c>
       <c r="P4" t="n">
-        <v>492.0884839238013</v>
+        <v>492.0884839238016</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.1433859220627</v>
+        <v>106.1433859220625</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.98128738499605</v>
+        <v>43.98128738499608</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.9223564763582</v>
+        <v>107.9223564763581</v>
       </c>
       <c r="M2" t="n">
         <v>69.00304256261342</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.85380515058907</v>
+        <v>25.85380515058901</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.3113074867694</v>
+        <v>311.3113074867693</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.0532872782787</v>
+        <v>120.0532872782788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>60.72388915875365</v>
+        <v>60.72388915875376</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.1433859220627</v>
+        <v>106.1433859220625</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.98128738499605</v>
+        <v>43.98128738499608</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.892868265313084</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>202.9636484969459</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>130.4674714214992</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>220.6315523179333</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>225.9245414077138</v>
+        <v>226.7441660601258</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>145.2804926640194</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G10" t="n">
-        <v>161.1149336167473</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>155.3511267657281</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="C11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="D11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="E11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="F11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="G11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="H11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="I11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.4550644623804</v>
       </c>
       <c r="S11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="T11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="U11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="V11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="W11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="X11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.3965814291631</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="C12" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28178,13 +28178,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="G12" t="n">
-        <v>131.379961184021</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.18410416320771</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="T12" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="U12" t="n">
-        <v>131.379961184021</v>
+        <v>129.50305367083</v>
       </c>
       <c r="V12" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.379961184021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="C13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="D13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="E13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="F13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="G13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="H13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="I13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="J13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="K13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="L13" t="n">
-        <v>131.379961184021</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9227880175205</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="O13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="P13" t="n">
-        <v>131.379961184021</v>
+        <v>124.9227880175218</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="R13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="S13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="T13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="U13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="V13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="W13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="X13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.379961184021</v>
+        <v>131.3799611840209</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="C14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="D14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="E14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="F14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="G14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="H14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="I14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.4550644623804</v>
       </c>
       <c r="S14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="U14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="V14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="W14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="X14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="D15" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="G15" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="H15" t="n">
         <v>109.6512419216643</v>
@@ -28454,25 +28454,25 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S15" t="n">
-        <v>19.85181174916681</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="T15" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>19.85181174916579</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="C16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="D16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="E16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="F16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="G16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="H16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="I16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="J16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="K16" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>124.9227880175218</v>
       </c>
       <c r="N16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="O16" t="n">
-        <v>124.9227880175246</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="R16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="S16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="T16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="U16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="V16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="W16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="X16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.3799611840208</v>
+        <v>131.3799611840209</v>
       </c>
     </row>
     <row r="17">
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,25 +28691,25 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S18" t="n">
-        <v>79.97141200176077</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237785229719</v>
+        <v>34.77450682528996</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>237.5233471060835</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28770,7 +28770,7 @@
         <v>167.2069181798455</v>
       </c>
       <c r="S19" t="n">
-        <v>220.1072229623119</v>
+        <v>39.80355175615924</v>
       </c>
       <c r="T19" t="n">
         <v>226.9871093630283</v>
@@ -28779,7 +28779,7 @@
         <v>237.5233471060835</v>
       </c>
       <c r="V19" t="n">
-        <v>57.21967589993082</v>
+        <v>237.5233471060835</v>
       </c>
       <c r="W19" t="n">
         <v>237.5233471060835</v>
@@ -28825,7 +28825,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28889,16 +28889,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>48.54171026223428</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28937,16 +28937,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>237.5233471060835</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.10798814037429</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>148.704406723306</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>77.49939401566411</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>167.2069181798455</v>
       </c>
       <c r="S22" t="n">
-        <v>117.3029457718234</v>
+        <v>39.80355175615924</v>
       </c>
       <c r="T22" t="n">
         <v>226.9871093630283</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>109.6512419216643</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,16 +29171,16 @@
         <v>199.0862173745079</v>
       </c>
       <c r="U24" t="n">
-        <v>19.93362075652252</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>4.939515960449427</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.3778732920196</v>
       </c>
       <c r="R25" t="n">
-        <v>54.28112026571242</v>
+        <v>167.2069181798455</v>
       </c>
       <c r="S25" t="n">
         <v>220.1072229623119</v>
@@ -29262,7 +29262,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>38.28098214594215</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="C26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="D26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="E26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="F26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="G26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="H26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="I26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="J26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="K26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="L26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070583</v>
       </c>
       <c r="M26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="N26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="O26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="P26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="R26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="S26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="T26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="U26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="V26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="W26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="X26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="C27" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>13.60689149806001</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S27" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="U27" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>13.60689149805995</v>
       </c>
       <c r="X27" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>150.1246733070586</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="C28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="G28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="H28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="I28" t="n">
-        <v>148.704406723306</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="J28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="K28" t="n">
-        <v>100.9994924855503</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>6.92888965329422</v>
       </c>
       <c r="P28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.3778732920196</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="R28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="S28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="T28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="U28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="V28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="W28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="X28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070586</v>
       </c>
     </row>
     <row r="29">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.1246733070586</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>54.08032288345407</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H30" t="n">
         <v>109.6512419216643</v>
@@ -29636,22 +29636,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.5447696799981</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>150.1246733070586</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.5491494818861327</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>150.1246733070586</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29673,10 +29673,10 @@
         <v>150.1246733070586</v>
       </c>
       <c r="D31" t="n">
-        <v>150.1246733070586</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>150.1246733070586</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -29691,7 +29691,7 @@
         <v>148.704406723306</v>
       </c>
       <c r="J31" t="n">
-        <v>77.49939401566411</v>
+        <v>150.1246733070586</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29703,16 +29703,16 @@
         <v>150.1246733070586</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>18.25269247051085</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>150.1246733070586</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>85.67806081256883</v>
       </c>
       <c r="R31" t="n">
         <v>150.1246733070586</v>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0759430815659</v>
+        <v>55.57784268853756</v>
       </c>
       <c r="H33" t="n">
         <v>109.6512419216643</v>
@@ -29873,20 +29873,20 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.505247583685389</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>151.9036438613542</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>151.9036438613542</v>
       </c>
     </row>
     <row r="34">
@@ -29928,10 +29928,10 @@
         <v>148.704406723306</v>
       </c>
       <c r="J34" t="n">
-        <v>77.49939401566411</v>
+        <v>151.9036438613542</v>
       </c>
       <c r="K34" t="n">
-        <v>148.2857403188509</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>151.9036438613542</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.3778732920196</v>
+        <v>141.2593637651804</v>
       </c>
       <c r="R34" t="n">
         <v>151.9036438613542</v>
@@ -30007,7 +30007,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>48.00372961235676</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>150.4553515739434</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.4550644623804</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="S35" t="n">
         <v>220.9066864239676</v>
@@ -30068,19 +30068,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>6.263522323326029</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30113,25 +30113,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>220.9066864239676</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>214.4162603177013</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30150,7 +30150,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>26.86366539089448</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30207,7 +30207,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3363891682929</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30241,7 +30241,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="I38" t="n">
-        <v>191.1960010584325</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>134.197643828062</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,10 +30265,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>48.00372961235563</v>
       </c>
       <c r="R38" t="n">
-        <v>164.4234575737969</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="S38" t="n">
         <v>220.9066864239676</v>
@@ -30302,19 +30302,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H39" t="n">
         <v>109.6512419216643</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.5447696799981</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>146.7188403301358</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,10 +30362,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>220.9066864239676</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>63.71258104861442</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>26.86366539089447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30441,7 +30441,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="W40" t="n">
-        <v>220.9066864239676</v>
+        <v>101.3363891682929</v>
       </c>
       <c r="X40" t="n">
         <v>220.9066864239676</v>
@@ -30457,37 +30457,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="C41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="D41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="E41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="F41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="G41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="H41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="I41" t="n">
-        <v>191.1960010584325</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>202.7792041895606</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>33.17717695871801</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,37 +30496,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>140.0490382899706</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.7792041895606</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.4550644623804</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="S41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="T41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="U41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="V41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="W41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="X41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
     </row>
     <row r="42">
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>152.8513775394601</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,13 +30548,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>35.02695006150527</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.18410416320771</v>
@@ -30587,7 +30587,7 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S42" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>149.7069187010725</v>
       </c>
       <c r="G43" t="n">
         <v>167.7666542368038</v>
@@ -30642,7 +30642,7 @@
         <v>77.49939401566411</v>
       </c>
       <c r="K43" t="n">
-        <v>4.285870678140776</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>167.2069181798455</v>
       </c>
       <c r="S43" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="T43" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="U43" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="V43" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="W43" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="X43" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.7792041895606</v>
+        <v>202.7792041895605</v>
       </c>
     </row>
     <row r="44">
@@ -30715,37 +30715,37 @@
         <v>202.7792041895606</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1960010584325</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>145.2040735344012</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>202.7792041895606</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>33.1771769587171</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>202.7792041895606</v>
       </c>
-      <c r="R44" t="n">
-        <v>118.4550644623804</v>
-      </c>
       <c r="S44" t="n">
-        <v>202.7792041895606</v>
+        <v>197.6241689451301</v>
       </c>
       <c r="T44" t="n">
         <v>202.7792041895606</v>
@@ -30776,25 +30776,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.5447696799981</v>
+        <v>54.49833880867909</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>17.15412996886533</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>202.7792041895606</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.7792041895606</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>171.5326917767686</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30864,7 +30864,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>149.7069187010721</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.7666542368038</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H11" t="n">
         <v>5.121591549789192</v>
@@ -31759,7 +31759,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J11" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K11" t="n">
         <v>63.61388024913924</v>
@@ -31768,13 +31768,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M11" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N11" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O11" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P11" t="n">
         <v>71.9141966897716</v>
@@ -31786,7 +31786,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S11" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T11" t="n">
         <v>2.189163140163768</v>
@@ -31832,13 +31832,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I12" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J12" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K12" t="n">
         <v>43.2073463329593</v>
@@ -31847,25 +31847,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M12" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N12" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O12" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P12" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R12" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S12" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T12" t="n">
         <v>1.078511320313702</v>
@@ -31914,16 +31914,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I13" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J13" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K13" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L13" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M13" t="n">
         <v>35.16398247906549</v>
@@ -31932,10 +31932,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O13" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P13" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q13" t="n">
         <v>18.78416995967478</v>
@@ -31944,10 +31944,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S13" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U13" t="n">
         <v>0.0122359157266365</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H14" t="n">
         <v>5.121591549789192</v>
@@ -31996,7 +31996,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J14" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K14" t="n">
         <v>63.61388024913924</v>
@@ -32005,13 +32005,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M14" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N14" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O14" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P14" t="n">
         <v>71.9141966897716</v>
@@ -32023,7 +32023,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S14" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T14" t="n">
         <v>2.189163140163768</v>
@@ -32069,13 +32069,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H15" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I15" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J15" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K15" t="n">
         <v>43.2073463329593</v>
@@ -32084,25 +32084,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M15" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N15" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O15" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P15" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R15" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S15" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T15" t="n">
         <v>1.078511320313702</v>
@@ -32151,16 +32151,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I16" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J16" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K16" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L16" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M16" t="n">
         <v>35.16398247906549</v>
@@ -32169,10 +32169,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O16" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P16" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q16" t="n">
         <v>18.78416995967478</v>
@@ -32181,10 +32181,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S16" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U16" t="n">
         <v>0.0122359157266365</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H17" t="n">
         <v>5.121591549789192</v>
@@ -32233,7 +32233,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J17" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K17" t="n">
         <v>63.61388024913924</v>
@@ -32242,13 +32242,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M17" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N17" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O17" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P17" t="n">
         <v>71.9141966897716</v>
@@ -32260,7 +32260,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S17" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T17" t="n">
         <v>2.189163140163768</v>
@@ -32306,13 +32306,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H18" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I18" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J18" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K18" t="n">
         <v>43.2073463329593</v>
@@ -32321,25 +32321,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M18" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N18" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O18" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P18" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R18" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S18" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T18" t="n">
         <v>1.078511320313702</v>
@@ -32388,16 +32388,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I19" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J19" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K19" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L19" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M19" t="n">
         <v>35.16398247906549</v>
@@ -32406,10 +32406,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O19" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P19" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q19" t="n">
         <v>18.78416995967478</v>
@@ -32418,10 +32418,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S19" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U19" t="n">
         <v>0.0122359157266365</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H20" t="n">
         <v>5.121591549789192</v>
@@ -32470,7 +32470,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J20" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K20" t="n">
         <v>63.61388024913924</v>
@@ -32479,13 +32479,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M20" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N20" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O20" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P20" t="n">
         <v>71.9141966897716</v>
@@ -32497,7 +32497,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S20" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T20" t="n">
         <v>2.189163140163768</v>
@@ -32543,13 +32543,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I21" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J21" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K21" t="n">
         <v>43.2073463329593</v>
@@ -32558,25 +32558,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M21" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N21" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O21" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P21" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R21" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S21" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T21" t="n">
         <v>1.078511320313702</v>
@@ -32625,16 +32625,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I22" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J22" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K22" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L22" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M22" t="n">
         <v>35.16398247906549</v>
@@ -32643,10 +32643,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O22" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P22" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q22" t="n">
         <v>18.78416995967478</v>
@@ -32655,10 +32655,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S22" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U22" t="n">
         <v>0.0122359157266365</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H23" t="n">
         <v>5.121591549789192</v>
@@ -32707,7 +32707,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J23" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K23" t="n">
         <v>63.61388024913924</v>
@@ -32716,13 +32716,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M23" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N23" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O23" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P23" t="n">
         <v>71.9141966897716</v>
@@ -32734,7 +32734,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S23" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T23" t="n">
         <v>2.189163140163768</v>
@@ -32780,13 +32780,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H24" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I24" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J24" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K24" t="n">
         <v>43.2073463329593</v>
@@ -32795,25 +32795,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M24" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N24" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O24" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P24" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R24" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S24" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T24" t="n">
         <v>1.078511320313702</v>
@@ -32862,16 +32862,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I25" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J25" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K25" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L25" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M25" t="n">
         <v>35.16398247906549</v>
@@ -32880,10 +32880,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O25" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P25" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q25" t="n">
         <v>18.78416995967478</v>
@@ -32892,10 +32892,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S25" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U25" t="n">
         <v>0.0122359157266365</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H26" t="n">
         <v>5.121591549789192</v>
@@ -32944,7 +32944,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J26" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K26" t="n">
         <v>63.61388024913924</v>
@@ -32953,13 +32953,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M26" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N26" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O26" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P26" t="n">
         <v>71.9141966897716</v>
@@ -32971,7 +32971,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S26" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T26" t="n">
         <v>2.189163140163768</v>
@@ -33017,13 +33017,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H27" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I27" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J27" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K27" t="n">
         <v>43.2073463329593</v>
@@ -33032,25 +33032,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M27" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N27" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O27" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P27" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R27" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S27" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T27" t="n">
         <v>1.078511320313702</v>
@@ -33099,16 +33099,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I28" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J28" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K28" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L28" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M28" t="n">
         <v>35.16398247906549</v>
@@ -33117,10 +33117,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O28" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P28" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q28" t="n">
         <v>18.78416995967478</v>
@@ -33129,10 +33129,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S28" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U28" t="n">
         <v>0.0122359157266365</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H29" t="n">
         <v>5.121591549789192</v>
@@ -33181,7 +33181,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J29" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K29" t="n">
         <v>63.61388024913924</v>
@@ -33190,13 +33190,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M29" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N29" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O29" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P29" t="n">
         <v>71.9141966897716</v>
@@ -33208,7 +33208,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S29" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T29" t="n">
         <v>2.189163140163768</v>
@@ -33254,13 +33254,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H30" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I30" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J30" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K30" t="n">
         <v>43.2073463329593</v>
@@ -33269,25 +33269,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M30" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N30" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O30" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P30" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R30" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S30" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T30" t="n">
         <v>1.078511320313702</v>
@@ -33336,16 +33336,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I31" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J31" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K31" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L31" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M31" t="n">
         <v>35.16398247906549</v>
@@ -33354,10 +33354,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O31" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P31" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q31" t="n">
         <v>18.78416995967478</v>
@@ -33366,10 +33366,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S31" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U31" t="n">
         <v>0.0122359157266365</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H32" t="n">
         <v>5.121591549789192</v>
@@ -33418,7 +33418,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J32" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K32" t="n">
         <v>63.61388024913924</v>
@@ -33427,13 +33427,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M32" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N32" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O32" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P32" t="n">
         <v>71.9141966897716</v>
@@ -33445,7 +33445,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S32" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T32" t="n">
         <v>2.189163140163768</v>
@@ -33491,13 +33491,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H33" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I33" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J33" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K33" t="n">
         <v>43.2073463329593</v>
@@ -33506,25 +33506,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M33" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N33" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O33" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P33" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R33" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S33" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T33" t="n">
         <v>1.078511320313702</v>
@@ -33573,16 +33573,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I34" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J34" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K34" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L34" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M34" t="n">
         <v>35.16398247906549</v>
@@ -33591,10 +33591,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O34" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P34" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q34" t="n">
         <v>18.78416995967478</v>
@@ -33603,10 +33603,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S34" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U34" t="n">
         <v>0.0122359157266365</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H35" t="n">
         <v>5.121591549789192</v>
@@ -33655,7 +33655,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J35" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K35" t="n">
         <v>63.61388024913924</v>
@@ -33664,13 +33664,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M35" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N35" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O35" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P35" t="n">
         <v>71.9141966897716</v>
@@ -33682,7 +33682,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S35" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T35" t="n">
         <v>2.189163140163768</v>
@@ -33728,13 +33728,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H36" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I36" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J36" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K36" t="n">
         <v>43.2073463329593</v>
@@ -33743,25 +33743,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M36" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N36" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O36" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P36" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R36" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S36" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T36" t="n">
         <v>1.078511320313702</v>
@@ -33810,16 +33810,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I37" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J37" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K37" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L37" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M37" t="n">
         <v>35.16398247906549</v>
@@ -33828,10 +33828,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O37" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P37" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q37" t="n">
         <v>18.78416995967478</v>
@@ -33840,10 +33840,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S37" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U37" t="n">
         <v>0.0122359157266365</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H38" t="n">
         <v>5.121591549789192</v>
@@ -33892,7 +33892,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J38" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K38" t="n">
         <v>63.61388024913924</v>
@@ -33901,13 +33901,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M38" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N38" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O38" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P38" t="n">
         <v>71.9141966897716</v>
@@ -33919,7 +33919,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S38" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T38" t="n">
         <v>2.189163140163768</v>
@@ -33965,13 +33965,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H39" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I39" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J39" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K39" t="n">
         <v>43.2073463329593</v>
@@ -33980,25 +33980,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M39" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N39" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O39" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P39" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R39" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S39" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T39" t="n">
         <v>1.078511320313702</v>
@@ -34047,16 +34047,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I40" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J40" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K40" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L40" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M40" t="n">
         <v>35.16398247906549</v>
@@ -34065,10 +34065,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O40" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P40" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q40" t="n">
         <v>18.78416995967478</v>
@@ -34077,10 +34077,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S40" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U40" t="n">
         <v>0.0122359157266365</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H41" t="n">
         <v>5.121591549789192</v>
@@ -34129,7 +34129,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J41" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K41" t="n">
         <v>63.61388024913924</v>
@@ -34138,13 +34138,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M41" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N41" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O41" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P41" t="n">
         <v>71.9141966897716</v>
@@ -34156,7 +34156,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S41" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T41" t="n">
         <v>2.189163140163768</v>
@@ -34202,13 +34202,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H42" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I42" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J42" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K42" t="n">
         <v>43.2073463329593</v>
@@ -34217,25 +34217,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M42" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N42" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O42" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P42" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R42" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S42" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T42" t="n">
         <v>1.078511320313702</v>
@@ -34284,16 +34284,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I43" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J43" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K43" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L43" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M43" t="n">
         <v>35.16398247906549</v>
@@ -34302,10 +34302,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O43" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P43" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q43" t="n">
         <v>18.78416995967478</v>
@@ -34314,10 +34314,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S43" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U43" t="n">
         <v>0.0122359157266365</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5000943781070856</v>
+        <v>0.5000943781070857</v>
       </c>
       <c r="H44" t="n">
         <v>5.121591549789192</v>
@@ -34366,7 +34366,7 @@
         <v>19.27988851197344</v>
       </c>
       <c r="J44" t="n">
-        <v>42.44488522386629</v>
+        <v>42.4448852238663</v>
       </c>
       <c r="K44" t="n">
         <v>63.61388024913924</v>
@@ -34375,13 +34375,13 @@
         <v>78.91864357313398</v>
       </c>
       <c r="M44" t="n">
-        <v>87.81219696979585</v>
+        <v>87.81219696979586</v>
       </c>
       <c r="N44" t="n">
         <v>89.23309012159262</v>
       </c>
       <c r="O44" t="n">
-        <v>84.26027664929028</v>
+        <v>84.26027664929029</v>
       </c>
       <c r="P44" t="n">
         <v>71.9141966897716</v>
@@ -34393,7 +34393,7 @@
         <v>31.41405347876924</v>
       </c>
       <c r="S44" t="n">
-        <v>11.39590064111522</v>
+        <v>11.39590064111523</v>
       </c>
       <c r="T44" t="n">
         <v>2.189163140163768</v>
@@ -34439,13 +34439,13 @@
         <v>0.2675740816447489</v>
       </c>
       <c r="H45" t="n">
-        <v>2.58420231483218</v>
+        <v>2.584202314832181</v>
       </c>
       <c r="I45" t="n">
-        <v>9.212528688207364</v>
+        <v>9.212528688207366</v>
       </c>
       <c r="J45" t="n">
-        <v>25.27988286276112</v>
+        <v>25.27988286276113</v>
       </c>
       <c r="K45" t="n">
         <v>43.2073463329593</v>
@@ -34454,25 +34454,25 @@
         <v>58.09760926238287</v>
       </c>
       <c r="M45" t="n">
-        <v>67.79716972200499</v>
+        <v>67.79716972200501</v>
       </c>
       <c r="N45" t="n">
-        <v>69.59155906777177</v>
+        <v>69.59155906777178</v>
       </c>
       <c r="O45" t="n">
-        <v>63.66268073238022</v>
+        <v>63.66268073238023</v>
       </c>
       <c r="P45" t="n">
         <v>51.09491388881175</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.15559680784549</v>
+        <v>34.1555968078455</v>
       </c>
       <c r="R45" t="n">
         <v>16.61306447264503</v>
       </c>
       <c r="S45" t="n">
-        <v>4.970071209497854</v>
+        <v>4.970071209497855</v>
       </c>
       <c r="T45" t="n">
         <v>1.078511320313702</v>
@@ -34521,16 +34521,16 @@
         <v>1.994454263441749</v>
       </c>
       <c r="I46" t="n">
-        <v>6.746068203952252</v>
+        <v>6.746068203952253</v>
       </c>
       <c r="J46" t="n">
         <v>15.85978610100866</v>
       </c>
       <c r="K46" t="n">
-        <v>26.06250049773571</v>
+        <v>26.06250049773572</v>
       </c>
       <c r="L46" t="n">
-        <v>33.35102763223552</v>
+        <v>33.35102763223553</v>
       </c>
       <c r="M46" t="n">
         <v>35.16398247906549</v>
@@ -34539,10 +34539,10 @@
         <v>34.32786157107869</v>
       </c>
       <c r="O46" t="n">
-        <v>31.70733628629069</v>
+        <v>31.7073362862907</v>
       </c>
       <c r="P46" t="n">
-        <v>27.13110380452862</v>
+        <v>27.13110380452863</v>
       </c>
       <c r="Q46" t="n">
         <v>18.78416995967478</v>
@@ -34551,10 +34551,10 @@
         <v>10.08647319732401</v>
       </c>
       <c r="S46" t="n">
-        <v>3.909375074660356</v>
+        <v>3.909375074660357</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9584800652531912</v>
+        <v>0.9584800652531913</v>
       </c>
       <c r="U46" t="n">
         <v>0.0122359157266365</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M9" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
         <v>6.876045741711437</v>
@@ -35343,7 +35343,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.01386755926677</v>
+        <v>44.01386755926678</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>290.3835747859679</v>
       </c>
       <c r="M12" t="n">
+        <v>300.0151011142382</v>
+      </c>
+      <c r="N12" t="n">
         <v>379.9834547461365</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>314.9287555646653</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>220.6696206639913</v>
+        <v>235.5832751144187</v>
       </c>
       <c r="Q12" t="n">
         <v>104.2511104576731</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.88056716835688</v>
+        <v>53.88056716835683</v>
       </c>
       <c r="K13" t="n">
-        <v>135.1729698558739</v>
+        <v>135.1729698558738</v>
       </c>
       <c r="L13" t="n">
-        <v>192.3210140765727</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M13" t="n">
-        <v>199.6706474584265</v>
+        <v>206.127820624927</v>
       </c>
       <c r="N13" t="n">
-        <v>78.46003395030728</v>
+        <v>209.8399951343282</v>
       </c>
       <c r="O13" t="n">
-        <v>187.6724253843514</v>
+        <v>187.6724253843513</v>
       </c>
       <c r="P13" t="n">
-        <v>155.7896242534431</v>
+        <v>149.3324510869439</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0020878920014</v>
+        <v>64.00208789200134</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.49559586925409</v>
+        <v>30.49559586925378</v>
       </c>
       <c r="K14" t="n">
         <v>167.6694417753234</v>
@@ -35665,7 +35665,7 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.01386755926677</v>
+        <v>44.01386755926678</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.53329153650327</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>169.8311443711789</v>
       </c>
       <c r="L15" t="n">
         <v>290.3835747859679</v>
@@ -35735,13 +35735,13 @@
         <v>379.9834547461365</v>
       </c>
       <c r="N15" t="n">
-        <v>379.9834547461365</v>
+        <v>324.9207311216643</v>
       </c>
       <c r="O15" t="n">
-        <v>218.647192733457</v>
+        <v>314.9287555646653</v>
       </c>
       <c r="P15" t="n">
-        <v>235.5832751144187</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.88056716835671</v>
+        <v>53.88056716835683</v>
       </c>
       <c r="K16" t="n">
-        <v>135.1729698558737</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L16" t="n">
-        <v>192.3210140765725</v>
+        <v>192.3210140765726</v>
       </c>
       <c r="M16" t="n">
-        <v>74.74785944090607</v>
+        <v>199.6706474584279</v>
       </c>
       <c r="N16" t="n">
-        <v>209.8399951343281</v>
+        <v>209.8399951343282</v>
       </c>
       <c r="O16" t="n">
-        <v>181.2152522178549</v>
+        <v>187.6724253843513</v>
       </c>
       <c r="P16" t="n">
-        <v>155.789624253443</v>
+        <v>155.7896242534431</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.00208789200123</v>
+        <v>64.00208789200134</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.01386755926677</v>
+        <v>44.01386755926678</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>290.3835747859679</v>
       </c>
       <c r="M18" t="n">
-        <v>365.0698002957089</v>
+        <v>365.0698002957093</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.79300867185286</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L19" t="n">
-        <v>60.94105289255166</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M19" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N19" t="n">
-        <v>78.46003395030728</v>
+        <v>78.46003395030729</v>
       </c>
       <c r="O19" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P19" t="n">
-        <v>24.40966306942211</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.49559586925378</v>
+        <v>30.49559586925409</v>
       </c>
       <c r="K20" t="n">
-        <v>167.6694417753237</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L20" t="n">
         <v>260.8134431535972</v>
@@ -36139,7 +36139,7 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.01386755926677</v>
+        <v>44.01386755926678</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.53329153650327</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>169.8311443711789</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>290.3835747859679</v>
       </c>
       <c r="M21" t="n">
         <v>379.9834547461365</v>
@@ -36212,10 +36212,10 @@
         <v>379.9834547461365</v>
       </c>
       <c r="O21" t="n">
-        <v>314.9287555646653</v>
+        <v>48.81604836227802</v>
       </c>
       <c r="P21" t="n">
-        <v>235.3208511614958</v>
+        <v>235.5832751144187</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.79300867185286</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L22" t="n">
-        <v>60.94105289255166</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M22" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N22" t="n">
-        <v>78.46003395030728</v>
+        <v>78.46003395030729</v>
       </c>
       <c r="O22" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P22" t="n">
-        <v>24.40966306942211</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.01386755926677</v>
+        <v>44.01386755926678</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.53329153650327</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.8311443711789</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>275.4699203355403</v>
+        <v>194.1020119547592</v>
       </c>
       <c r="M24" t="n">
         <v>379.9834547461365</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>379.9834547461365</v>
       </c>
       <c r="O24" t="n">
         <v>314.9287555646653</v>
@@ -36455,7 +36455,7 @@
         <v>235.5832751144187</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.2511104576731</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.79300867185286</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L25" t="n">
-        <v>60.94105289255166</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M25" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N25" t="n">
-        <v>78.46003395030728</v>
+        <v>78.46003395030729</v>
       </c>
       <c r="O25" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P25" t="n">
-        <v>24.40966306942211</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6202691763123</v>
+        <v>180.6202691763124</v>
       </c>
       <c r="K26" t="n">
-        <v>317.7941150823819</v>
+        <v>317.7941150823821</v>
       </c>
       <c r="L26" t="n">
-        <v>410.9381164606557</v>
+        <v>410.9381164606555</v>
       </c>
       <c r="M26" t="n">
-        <v>457.1041705424142</v>
+        <v>457.1041705424143</v>
       </c>
       <c r="N26" t="n">
-        <v>447.2916242440444</v>
+        <v>447.2916242440445</v>
       </c>
       <c r="O26" t="n">
-        <v>385.0869197974074</v>
+        <v>385.0869197974075</v>
       </c>
       <c r="P26" t="n">
-        <v>312.6045824130432</v>
+        <v>312.6045824130433</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1385408663253</v>
+        <v>194.1385408663254</v>
       </c>
       <c r="R26" t="n">
-        <v>31.66960884467809</v>
+        <v>31.66960884467819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.509200288846273</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.690710660489458</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.703625284127384</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.420266583752597</v>
       </c>
       <c r="J28" t="n">
-        <v>72.62527929139443</v>
+        <v>72.62527929139452</v>
       </c>
       <c r="K28" t="n">
-        <v>104.7925011574032</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L28" t="n">
-        <v>60.94105289255166</v>
+        <v>211.0657261996103</v>
       </c>
       <c r="M28" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N28" t="n">
-        <v>228.5847072573658</v>
+        <v>78.46003395030729</v>
       </c>
       <c r="O28" t="n">
-        <v>56.29246420033037</v>
+        <v>63.22135385362459</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5343363764807</v>
+        <v>174.5343363764808</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.74680001503903</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6202691763124</v>
+        <v>180.6202691763123</v>
       </c>
       <c r="K29" t="n">
-        <v>317.7941150823821</v>
+        <v>317.794115082382</v>
       </c>
       <c r="L29" t="n">
-        <v>410.9381164606558</v>
+        <v>410.9381164606557</v>
       </c>
       <c r="M29" t="n">
-        <v>457.1041705424143</v>
+        <v>457.1041705424142</v>
       </c>
       <c r="N29" t="n">
-        <v>447.2916242440445</v>
+        <v>447.2916242440444</v>
       </c>
       <c r="O29" t="n">
         <v>385.0869197974075</v>
@@ -36850,10 +36850,10 @@
         <v>312.6045824130433</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.1385408663254</v>
+        <v>194.1385408663253</v>
       </c>
       <c r="R29" t="n">
-        <v>31.66960884467818</v>
+        <v>31.66960884467813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,10 +36969,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.509200288846273</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.690710660489458</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.62527929139446</v>
       </c>
       <c r="K31" t="n">
-        <v>3.79300867185286</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L31" t="n">
         <v>211.0657261996103</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8725327479647</v>
+        <v>224.8725327479646</v>
       </c>
       <c r="N31" t="n">
-        <v>78.46003395030728</v>
+        <v>96.71272642081814</v>
       </c>
       <c r="O31" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5343363764808</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.30018752054923</v>
+        <v>82.74680001503897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>74.40424984569006</v>
       </c>
       <c r="K34" t="n">
-        <v>152.0787489907037</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L34" t="n">
-        <v>212.8446967539058</v>
+        <v>212.8446967539059</v>
       </c>
       <c r="M34" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N34" t="n">
-        <v>230.3636778116614</v>
+        <v>230.3636778116615</v>
       </c>
       <c r="O34" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P34" t="n">
-        <v>24.40966306942211</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.88149047316074</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>29.71068536553511</v>
       </c>
       <c r="J35" t="n">
-        <v>30.49559586925378</v>
+        <v>78.49932548161054</v>
       </c>
       <c r="K35" t="n">
         <v>167.6694417753234</v>
@@ -37318,16 +37318,16 @@
         <v>297.1669509369859</v>
       </c>
       <c r="O35" t="n">
-        <v>385.4175980642923</v>
+        <v>234.9622464903489</v>
       </c>
       <c r="P35" t="n">
         <v>162.4799091059847</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.01386755926677</v>
+        <v>44.01386755926678</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>102.4516219615872</v>
       </c>
       <c r="S35" t="n">
         <v>23.28251747883747</v>
@@ -37394,16 +37394,16 @@
         <v>391.3681995499866</v>
       </c>
       <c r="N36" t="n">
-        <v>417.592221327992</v>
+        <v>177.1501551640386</v>
       </c>
       <c r="O36" t="n">
-        <v>178.7377998583847</v>
+        <v>314.9287555646653</v>
       </c>
       <c r="P36" t="n">
         <v>235.5832751144187</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.79300867185286</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L37" t="n">
-        <v>60.94105289255166</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M37" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N37" t="n">
-        <v>78.46003395030728</v>
+        <v>78.46003395030729</v>
       </c>
       <c r="O37" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P37" t="n">
-        <v>24.40966306942211</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>29.71068536553511</v>
       </c>
       <c r="J38" t="n">
         <v>30.49559586925378</v>
@@ -37552,7 +37552,7 @@
         <v>306.9794972353556</v>
       </c>
       <c r="N38" t="n">
-        <v>431.3645947650479</v>
+        <v>297.1669509369859</v>
       </c>
       <c r="O38" t="n">
         <v>234.9622464903489</v>
@@ -37561,10 +37561,10 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.01386755926677</v>
+        <v>92.01759717162241</v>
       </c>
       <c r="R38" t="n">
-        <v>45.96839311141644</v>
+        <v>102.4516219615872</v>
       </c>
       <c r="S38" t="n">
         <v>23.28251747883747</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.53329153650327</v>
       </c>
       <c r="K39" t="n">
         <v>169.8311443711789</v>
@@ -37628,7 +37628,7 @@
         <v>290.3835747859679</v>
       </c>
       <c r="M39" t="n">
-        <v>175.4594249225361</v>
+        <v>391.3681995499866</v>
       </c>
       <c r="N39" t="n">
         <v>417.592221327992</v>
@@ -37637,10 +37637,10 @@
         <v>314.9287555646653</v>
       </c>
       <c r="P39" t="n">
-        <v>235.5832751144187</v>
+        <v>99.3923194081376</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.2511104576731</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.79300867185286</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L40" t="n">
-        <v>60.94105289255166</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M40" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N40" t="n">
-        <v>78.46003395030728</v>
+        <v>78.46003395030729</v>
       </c>
       <c r="O40" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P40" t="n">
-        <v>24.40966306942211</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,16 +37774,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.58320313112804</v>
       </c>
       <c r="J41" t="n">
         <v>30.49559586925378</v>
       </c>
       <c r="K41" t="n">
-        <v>370.448645964884</v>
+        <v>167.6694417753234</v>
       </c>
       <c r="L41" t="n">
-        <v>293.9906201123152</v>
+        <v>260.8134431535972</v>
       </c>
       <c r="M41" t="n">
         <v>306.9794972353556</v>
@@ -37792,19 +37792,19 @@
         <v>297.1669509369859</v>
       </c>
       <c r="O41" t="n">
-        <v>234.9622464903489</v>
+        <v>437.7414506799095</v>
       </c>
       <c r="P41" t="n">
-        <v>162.4799091059847</v>
+        <v>302.5289473959552</v>
       </c>
       <c r="Q41" t="n">
-        <v>246.7930717488274</v>
+        <v>44.01386755926678</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.32413972718008</v>
       </c>
       <c r="S41" t="n">
-        <v>5.155035244430485</v>
+        <v>5.155035244430401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.53329153650327</v>
+        <v>24.53329153650334</v>
       </c>
       <c r="K42" t="n">
         <v>169.8311443711789</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>4.285870678141254</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.078879349993636</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L43" t="n">
-        <v>60.94105289255166</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M43" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N43" t="n">
-        <v>78.46003395030728</v>
+        <v>78.46003395030729</v>
       </c>
       <c r="O43" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P43" t="n">
-        <v>24.40966306942211</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.5832031311281</v>
       </c>
       <c r="J44" t="n">
-        <v>233.2748000588144</v>
+        <v>30.49559586925378</v>
       </c>
       <c r="K44" t="n">
         <v>167.6694417753234</v>
@@ -38026,22 +38026,22 @@
         <v>306.9794972353556</v>
       </c>
       <c r="N44" t="n">
-        <v>330.344127895703</v>
+        <v>442.371024471387</v>
       </c>
       <c r="O44" t="n">
         <v>234.9622464903489</v>
       </c>
       <c r="P44" t="n">
-        <v>162.4799091059847</v>
+        <v>365.2591132955453</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.7930717488274</v>
+        <v>44.01386755926678</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>84.32413972718014</v>
       </c>
       <c r="S44" t="n">
-        <v>5.155035244430485</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>391.3681995499866</v>
       </c>
       <c r="N45" t="n">
-        <v>417.5922213279913</v>
+        <v>417.592221327992</v>
       </c>
       <c r="O45" t="n">
         <v>314.9287555646653</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4.285870678140795</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.285870678140802</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.79300867185286</v>
+        <v>3.793008671852864</v>
       </c>
       <c r="L46" t="n">
-        <v>60.94105289255166</v>
+        <v>60.94105289255167</v>
       </c>
       <c r="M46" t="n">
         <v>74.74785944090607</v>
       </c>
       <c r="N46" t="n">
-        <v>78.46003395030728</v>
+        <v>78.46003395030729</v>
       </c>
       <c r="O46" t="n">
         <v>56.29246420033037</v>
       </c>
       <c r="P46" t="n">
-        <v>24.40966306942211</v>
+        <v>24.40966306942212</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
